--- a/templates/Master Mapping Template (2).xlsx
+++ b/templates/Master Mapping Template (2).xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/jose_r_a_rodriguez_accenture_com/Documents/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://myoffice.accenture.com/personal/jose_r_a_rodriguez_accenture_com/Documents/Documents/McD/mapping_agent_streamlit/templates/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="8_{AD3CB868-D955-4A34-93D3-34527C925025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D7D9050C-0709-4D74-8122-EB4526271F71}"/>
+  <xr:revisionPtr revIDLastSave="9" documentId="8_{AD3CB868-D955-4A34-93D3-34527C925025}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{93CA6379-0186-4E36-8D48-A713625064B3}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="11500" tabRatio="688" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -49,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="596" uniqueCount="181">
   <si>
     <t>Transformation Details</t>
   </si>
@@ -601,18 +601,6 @@
     <t>x</t>
   </si>
   <si>
-    <t>[Data entity in which the source data is coming from for the corresponding attribute]</t>
-  </si>
-  <si>
-    <t>[Data type of corresponding attribute]</t>
-  </si>
-  <si>
-    <t>[Populate examples when there is not a set list of values]</t>
-  </si>
-  <si>
-    <t>[Reference the Revision History tab to see the previous version number. Should add from the first decimal place (i.e. 1.1, 1.2). If it is the creation of the document, Revision Update should be 1]</t>
-  </si>
-  <si>
     <t>Ticket Number</t>
   </si>
   <si>
@@ -697,44 +685,10 @@
     <t>Referencial Key</t>
   </si>
   <si>
-    <t>[Source table or payload of the corresponding attributes, if attributes is populated from a file input file name here]</t>
-  </si>
-  <si>
-    <t>JSON Payload structure &lt;For Reference&gt; 
-Multiple nested structure can be captured under the object node. If we have more child nodes it can be captured by adding a new column right</t>
-  </si>
-  <si>
-    <t>[Only populate when Transformation Type is "See Transformation Rule". This should explain the logic in which the attribute is being transformed]
-Flatten rule or logic can be mentioned here</t>
-  </si>
-  <si>
-    <t>[Definition of object as described in the metadata. This should only include the definition of the table in bronze]</t>
-  </si>
-  <si>
-    <t>[Definition of column as described in the metadata. This should only include the definition of the corresponding target attribute]</t>
-  </si>
-  <si>
-    <t>[Populate only when the metadata defines that there is a set list of what values can exist] 
-If information is available add it it is not mandatory to capture not required for validation bronze layer data</t>
-  </si>
-  <si>
     <t>Table Definition</t>
   </si>
   <si>
     <t>CRMS</t>
-  </si>
-  <si>
-    <t>[Name of target table]
-stg_&lt;source application_name_object_name&gt;</t>
-  </si>
-  <si>
-    <t>Source Integration Type (Kafka, API, File)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">[Name of raw table]
-raw_&lt;source application_name_object_name&gt;
-Object name should be snakecase. If this is a file based integration, then there will be no raw layer table. 
-</t>
   </si>
   <si>
     <t>Payload</t>
@@ -769,29 +723,6 @@
 Added a new sheet Table Structure, to provide the RAW and Stg table,column names and datatypes for data engineers to create the table.</t>
   </si>
   <si>
-    <t>[Type of transformation the attribute follows when coming from the source. Possible transformation types are: Pass As Is, System, and See Transformation Rule. When attribute flows straight from the source to the target, populate as "Pass As Is". When the attribute is created by the load (ex. updt_dw_audt_ts), populate as "System". When the attribute is transformed in any way, populate "See Transformation Rule"]
-This is applicable if there is any transformation happening between Source to Raw otherwise keep it blank or NA</t>
-  </si>
-  <si>
-    <t>[Only populate when Transformation Type is "See Transformation Rule". This should explain the logic in which the attribute is being transformed]
-This is applicable if there is any transformation happening between Source to Raw otherwise keep it blank or NA</t>
-  </si>
-  <si>
-    <t>correlation_id</t>
-  </si>
-  <si>
-    <t>string</t>
-  </si>
-  <si>
-    <t>load_dw_audt_ts</t>
-  </si>
-  <si>
-    <t>updt_dw_audt_ts</t>
-  </si>
-  <si>
-    <t>dw_file_id</t>
-  </si>
-  <si>
     <t>Instructions</t>
   </si>
   <si>
@@ -807,181 +738,15 @@
     <t>Run the spell check to make sure there is no typo on Column N &amp; Q - Table / Column definition.</t>
   </si>
   <si>
-    <t>This is only for reference to map 1:1 with Bronze
-This column will also help to know the JSON Path from parent node.
-Not to be considered for table creation</t>
-  </si>
-  <si>
-    <t>[Type of transformation the attribute follows when coming from the source. Possible transformation types are: Pass As Is, System, and See Transformation Rule. 
-When attribute flows straight from the source to raw to bronze populate as "Pass As Is". 
-When the attribute is JSON and flatten in Bronze use "Parse JSON"
-When the attribute is created by the load (ex. updt_dw_audt_ts), populate as "System". When the attribute is transformed in any way, populate "See Transformation Rule"]</t>
-  </si>
-  <si>
     <t>Source - Customer Request Microservice</t>
   </si>
   <si>
-    <t>stg_crms_profile_customer_delete</t>
-  </si>
-  <si>
-    <t>correlationId / messageid</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete</t>
-  </si>
-  <si>
-    <t>Pass as is</t>
-  </si>
-  <si>
-    <t>raw_crms_identity_profile_customer_delete</t>
-  </si>
-  <si>
-    <t>header.correlation_id</t>
-  </si>
-  <si>
-    <t>Contains the history of all delete events that are sent from CRMS</t>
-  </si>
-  <si>
-    <t>Correlation ID or message ID from source</t>
-  </si>
-  <si>
-    <t>header.timestamp</t>
-  </si>
-  <si>
-    <t>{"uuid": "3da5bfb5-7c30-4f01-a7b4-e7551a5713a3",
-	"customerId": "53b1aa42-0cb9-4627-9019-261098218674",
-	"marketId": "US",
-	"sourceApp": "GMA",
-	"deleteType": "ACCOUNT",
-	"requestQueueRefId": "",
-	"deleteTimestamp": "2025-06-12T21:16:07.239206272Z",
-	"allMarketDelete": true
-}</t>
-  </si>
-  <si>
-    <t>Transform customerID using translation utility to reporting ID</t>
-  </si>
-  <si>
-    <t>profile_customer_delete_json</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.market_reporting_customer_id</t>
-  </si>
-  <si>
-    <t>Parse JSON</t>
-  </si>
-  <si>
-    <t>market_reporting_customer_id</t>
-  </si>
-  <si>
-    <t>Customer market reporting ID</t>
-  </si>
-  <si>
-    <t>Same as above</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.uuid</t>
-  </si>
-  <si>
-    <t>uuid</t>
-  </si>
-  <si>
-    <t>Unique to both action and event, track unique event throughout systems.</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.marketId</t>
-  </si>
-  <si>
-    <t>market_id</t>
-  </si>
-  <si>
-    <t>2-3 digit market code, containing market a customer delete is applicable for.</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.sourceApp</t>
-  </si>
-  <si>
-    <t>source_app</t>
-  </si>
-  <si>
-    <t>Source system requested for customer delete</t>
-  </si>
-  <si>
-    <t>"GMA","GWA","WEB","C360","RELTIO/CPM"</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.deleteType</t>
-  </si>
-  <si>
-    <t>delete_type</t>
-  </si>
-  <si>
-    <t>Type of delete action</t>
-  </si>
-  <si>
-    <t>"ACCOUNT","DRP",
-"ACTIVATION_PENDING","DSAR","CONSENT"</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.requestQueueRefId</t>
-  </si>
-  <si>
-    <t>request_queue_ref_id</t>
-  </si>
-  <si>
-    <t>OneTrust reference ID</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.deleteTimestamp</t>
-  </si>
-  <si>
-    <t>delete_timestamp</t>
-  </si>
-  <si>
-    <t>Timestamp of the delete request in ISO 8601 format</t>
-  </si>
-  <si>
-    <t>identityProfileCustomerDelete.allMarketDelete</t>
-  </si>
-  <si>
-    <t>all_market_delete</t>
-  </si>
-  <si>
-    <t>boolean</t>
-  </si>
-  <si>
-    <t>Customer active flag</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Audit column for storing the load time/recordcreationtime</t>
-  </si>
-  <si>
-    <t>Audit column for storing the record update time in target</t>
-  </si>
-  <si>
-    <t>Souce file ID (if the source is Streaming use -1 as default)</t>
-  </si>
-  <si>
     <t>Initial Creation</t>
   </si>
   <si>
     <t>Update the Revision History with the Version, Ticket Number, Date, Change, and name of person making the change. For updates being made to an existing mapping, please include the tables being updated and what change is being made</t>
   </si>
   <si>
-    <t>Bronze Table Name</t>
-  </si>
-  <si>
-    <t>&lt;attribute name based on source &gt;
-Attribute name should be snakecase
-Audit columns will be same ABAC standards (see example below, all tables should follow the same standard 4 columns). For Kafka integrations only, include the correlation ID and timestamp fields as standard (see example below)</t>
-  </si>
-  <si>
-    <t>json</t>
-  </si>
-  <si>
     <t>Fill out the corresponding mapping tab for either Source to Raw to Bronze or Bronze to Silver. Highlight your changes in light purple.</t>
   </si>
   <si>
@@ -1006,12 +771,6 @@
     <t>If you would like to maintain a separate tab for table structure format, feel free to add a new Table Structure tab which has all of the object names and their corresponding columns per layer.</t>
   </si>
   <si>
-    <t>dw_record_id</t>
-  </si>
-  <si>
-    <t>Generated via UUIDv7 has the value (For both file/Message)</t>
-  </si>
-  <si>
     <t>Partion Attributes</t>
   </si>
   <si>
@@ -1019,9 +778,6 @@
   </si>
   <si>
     <t>Referential Key</t>
-  </si>
-  <si>
-    <t>NOT NULL (DEFAULT CURRENT_DATE)</t>
   </si>
   <si>
     <t>V3</t>
@@ -1029,244 +785,6 @@
   <si>
     <t>3 New columns are added for RAW layer ( For specifying Partitioning, Clustering and Referential key)
 2 New columns are added for Stg layer ( For specifying Partitioning, Clustering)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Datatype of target attribute]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Based on DBT Standards:</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Key should be string (can be changed based on the source or business need to INT)
-Decimal currency shoud have precision value same as source.
-Flags should be boolean data type.
-Date &amp; Timestamp attributes can be same as source [date and timestamp].
-IF we need to enforce any attribute datatype based on business need we can enforce it in Model contracts
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">STRUCT Types: </t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">if the payload as multiple levels of nesting, the data is defined as STRUCT for after the first level.
- </t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">[Name of target attribute. Should match exactly with what is found in the metadata]
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <u/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>Based on DBT Standards:
-Only required attributes needs to be brought to Bronze/Stg</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Attributes muslt be
-snakecase separated by underscores
-Keep name as close as possible to source
-Big query allows max 300 limit, but Keep names concise and descriptive (aim for under 30-50 characters for readability)
-Avoid reserved words Ii,e OR, AND etc
-For date/timestamp columns default time zone be UTC.
-Audit columns will be same ABAC standards.&lt;no need to update&gt;
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>STRUCT Types</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>: It is suggested not to prefix the word used in STRUCT column (Parent ) for the child columns. 
-i.e in the below example it is suggested not to repeat the child columns as steps_id, steps_name as the parent column name is steps.
-steps [ {</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-id
-name
-channels
-} ]</t>
-    </r>
-  </si>
-  <si>
-    <t>Y</t>
-  </si>
-  <si>
-    <r>
-      <t>Partitioning a table is required, if your table volumne is huge.This will divide a large data set into smaller manageable segments of data.
-This is mainly for improving query performance and reduce compute cost.
-Even though end users are not allowed to query the data in RAW, this will help to reduce the Job timings.
-The Suggested columns are date fields which are sent from source (ex.  source_timestamp). 
-if we are not getting any date field from source we can use load_dw_audt_ts(ABAC)</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>.</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Note: PARTITION BY clause needs to be part of DDL statement.
-Specify [Y] for partition column.Rest colums can be blank</t>
-    </r>
-  </si>
-  <si>
-    <t>This is the place holder to mention the PK,NOT NULL constraints only. 
-Added newly to mention NOT NULL against Audit (ABAC) columns and Partition columns. 
-Partition column cannot have NULL values as it required value to create named partitions.
-(i.e) System_timestamp coming from source needs to be NOT NULL and DEFAULT value as SYSDATE or Current data. 
-Note: Partition column will be specified as NOT NULL with DEFAULT value as CURRENT_DATE</t>
-  </si>
-  <si>
-    <t>timestamp from source</t>
-  </si>
-  <si>
-    <t>[OPTIONAL FIELD FOR RAW]
-Clustering on a column will sort or index the table which will help in increasing the query performance and willl reduce the compute cost.
-Even though end users are not allowed to query the data in RAW, this will help to reduce the Job timings.
-The Suggested columns are key columns sent from source.
-This will be suggested by a DBA team or Modeling team.
-Note: CLUSTER BY clause needs to be part of DDL statement.
-Specify [Y] for partition column.Rest colums can be blank</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Partitioning a table is required if your table volumne is huge.This will divide a large data set into smaller manageable segments of data.
-This is mainly for improving query performance and reduce compute cost.
-Eventhough end users are not allowed to query the data in STG, this will help to reduce the Job timings.
-The Suggested columns are date fields which are sent from source.
-if we are not getting any source_timestamp from Source we can use </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">load_dw_audt_ts
-</t>
-    </r>
-    <r>
-      <rPr>
-        <i/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-Note: PARTITION BY clause needs to be part of DDL statement.
-Specify [Y] for partition column.Rest colums can be blank</t>
-    </r>
-  </si>
-  <si>
-    <t>Clustering on a column will sort or index the table which will help in increasing the query performance and willl reduce the compute cost.
-Eventhough end users are not allowed to query the data in STG, this will help to reduce the Job timings.
-The Suggested columns are any key columns This will be suggested by a DBA team or Modeling team.
-Note: CLUSTER BY clause needs to be part of DDL statement.
-Specify [Y] for partition column.Rest colums can be blank</t>
-  </si>
-  <si>
-    <t>[Only the ABAC columns should be specified as NOT NULL]</t>
   </si>
   <si>
     <t>Bronze table Name</t>
@@ -1283,7 +801,7 @@
     <numFmt numFmtId="164" formatCode="m/d/yyyy;@"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="41">
+  <fonts count="32">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1517,72 +1035,6 @@
       <i/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF001D35"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <u/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="1"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color rgb="FF292A2E"/>
-      <name val="Segoe UI"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <name val="Arial"/>
-      <family val="2"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <i/>
-      <sz val="14"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="14"/>
-      <color theme="3"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -2185,7 +1637,7 @@
       <alignment vertical="top"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="185">
+  <cellXfs count="151">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -2422,7 +1874,6 @@
     <xf numFmtId="0" fontId="1" fillId="33" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="32" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -2465,10 +1916,6 @@
     <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="36" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -2490,41 +1937,8 @@
     <xf numFmtId="165" fontId="27" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="33" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="34" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="33" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="27" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="22" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="14" fillId="47" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -2548,62 +1962,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="31" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="31" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="31" fillId="38" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="38" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="35" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="18" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="36" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="30" fillId="38" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="37" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="46" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2679,35 +2037,35 @@
     <xf numFmtId="0" fontId="1" fillId="41" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="37" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="39" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="40" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="41" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="42" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="43">
@@ -3076,7 +2434,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="75" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="C1" s="73" t="s">
         <v>13</v>
@@ -3090,46 +2448,46 @@
     </row>
     <row r="2" spans="1:5" s="66" customFormat="1">
       <c r="A2" s="70" t="s">
-        <v>166</v>
+        <v>153</v>
       </c>
       <c r="B2" s="69" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="C2" s="67">
         <v>45926</v>
       </c>
       <c r="D2" s="68" t="s">
-        <v>231</v>
+        <v>164</v>
       </c>
       <c r="E2" s="69" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="72.5">
       <c r="A3" s="10" t="s">
-        <v>168</v>
+        <v>155</v>
       </c>
       <c r="B3" s="7"/>
       <c r="C3" s="5">
         <v>45947</v>
       </c>
       <c r="D3" s="6" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>167</v>
+        <v>154</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="43.5">
       <c r="A4" s="10" t="s">
-        <v>250</v>
+        <v>177</v>
       </c>
       <c r="B4" s="7"/>
       <c r="C4" s="5">
         <v>45912</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>251</v>
+        <v>178</v>
       </c>
       <c r="E4" s="7"/>
     </row>
@@ -3433,103 +2791,103 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3">
-      <c r="B1" s="150" t="s">
-        <v>178</v>
-      </c>
-      <c r="C1" s="150"/>
+      <c r="B1" s="116" t="s">
+        <v>158</v>
+      </c>
+      <c r="C1" s="116"/>
     </row>
     <row r="2" spans="2:3">
-      <c r="B2" s="120"/>
-      <c r="C2" s="121" t="s">
-        <v>179</v>
+      <c r="B2" s="106"/>
+      <c r="C2" s="107" t="s">
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="2:3">
-      <c r="B3" s="122">
+      <c r="B3" s="108">
         <v>1</v>
       </c>
-      <c r="C3" s="123" t="s">
-        <v>239</v>
+      <c r="C3" s="109" t="s">
+        <v>169</v>
       </c>
     </row>
     <row r="4" spans="2:3" ht="29">
-      <c r="B4" s="122">
+      <c r="B4" s="108">
         <v>2</v>
       </c>
-      <c r="C4" s="123" t="s">
-        <v>232</v>
+      <c r="C4" s="109" t="s">
+        <v>165</v>
       </c>
     </row>
     <row r="5" spans="2:3">
-      <c r="B5" s="122">
+      <c r="B5" s="108">
         <v>3</v>
       </c>
-      <c r="C5" s="123" t="s">
-        <v>237</v>
+      <c r="C5" s="109" t="s">
+        <v>167</v>
       </c>
     </row>
     <row r="6" spans="2:3">
-      <c r="B6" s="122">
+      <c r="B6" s="108">
         <v>4</v>
       </c>
-      <c r="C6" s="123" t="s">
-        <v>236</v>
+      <c r="C6" s="109" t="s">
+        <v>166</v>
       </c>
     </row>
     <row r="7" spans="2:3">
-      <c r="B7" s="122">
+      <c r="B7" s="108">
         <v>5</v>
       </c>
-      <c r="C7" s="123" t="s">
-        <v>238</v>
+      <c r="C7" s="109" t="s">
+        <v>168</v>
       </c>
     </row>
     <row r="8" spans="2:3">
-      <c r="B8" s="122">
+      <c r="B8" s="108">
         <v>6</v>
       </c>
-      <c r="C8" s="126" t="s">
-        <v>240</v>
+      <c r="C8" s="112" t="s">
+        <v>170</v>
       </c>
     </row>
     <row r="9" spans="2:3">
-      <c r="B9" s="122">
+      <c r="B9" s="108">
         <v>7</v>
       </c>
-      <c r="C9" s="126" t="s">
-        <v>241</v>
+      <c r="C9" s="112" t="s">
+        <v>171</v>
       </c>
     </row>
     <row r="10" spans="2:3">
-      <c r="B10" s="122">
+      <c r="B10" s="108">
         <v>8</v>
       </c>
-      <c r="C10" s="124" t="s">
-        <v>180</v>
+      <c r="C10" s="110" t="s">
+        <v>160</v>
       </c>
     </row>
     <row r="11" spans="2:3">
-      <c r="B11" s="122">
+      <c r="B11" s="108">
         <v>9</v>
       </c>
-      <c r="C11" s="124" t="s">
-        <v>181</v>
+      <c r="C11" s="110" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="12" spans="2:3">
-      <c r="B12" s="122">
+      <c r="B12" s="108">
         <v>10</v>
       </c>
-      <c r="C12" s="124" t="s">
-        <v>182</v>
+      <c r="C12" s="110" t="s">
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="2:3">
-      <c r="B13" s="125" t="s">
-        <v>242</v>
-      </c>
-      <c r="C13" s="124" t="s">
-        <v>243</v>
+      <c r="B13" s="111" t="s">
+        <v>172</v>
+      </c>
+      <c r="C13" s="110" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3545,11 +2903,11 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:AA89"/>
+  <dimension ref="A1:Z69"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <pane xSplit="1" topLeftCell="O1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="R2" sqref="R2"/>
+      <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
+      <selection pane="topRight" activeCell="A3" sqref="A3:XFD22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.1796875" defaultRowHeight="14.5"/>
@@ -3557,7 +2915,7 @@
     <col min="1" max="1" width="35.54296875" style="29" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="52.54296875" style="1" customWidth="1"/>
     <col min="3" max="3" width="30.90625" style="1" customWidth="1"/>
-    <col min="4" max="6" width="46.90625" style="88" customWidth="1"/>
+    <col min="4" max="6" width="46.90625" style="87" customWidth="1"/>
     <col min="7" max="7" width="46.453125" style="29" customWidth="1"/>
     <col min="8" max="8" width="35.6328125" style="2" customWidth="1"/>
     <col min="9" max="9" width="35.6328125" style="29" customWidth="1"/>
@@ -3565,7 +2923,7 @@
     <col min="11" max="11" width="48.453125" style="29" customWidth="1"/>
     <col min="12" max="13" width="46.90625" style="29" customWidth="1"/>
     <col min="14" max="15" width="35.6328125" style="1" customWidth="1"/>
-    <col min="16" max="16" width="35.6328125" style="86" customWidth="1"/>
+    <col min="16" max="16" width="35.6328125" style="85" customWidth="1"/>
     <col min="17" max="17" width="35.6328125" style="2" customWidth="1"/>
     <col min="18" max="18" width="44" style="2" customWidth="1"/>
     <col min="19" max="19" width="35.6328125" style="2" customWidth="1"/>
@@ -3575,56 +2933,56 @@
     <col min="27" max="16384" width="9.1796875" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" s="29" customFormat="1">
-      <c r="A1" s="151" t="s">
+    <row r="1" spans="1:26" s="29" customFormat="1">
+      <c r="A1" s="117" t="s">
         <v>49</v>
       </c>
-      <c r="B1" s="151"/>
-      <c r="C1" s="151"/>
-      <c r="D1" s="151"/>
-      <c r="E1" s="153" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="153"/>
-      <c r="G1" s="152" t="s">
-        <v>144</v>
-      </c>
-      <c r="H1" s="152"/>
-      <c r="I1" s="152"/>
-      <c r="J1" s="101"/>
-      <c r="K1" s="101"/>
-      <c r="L1" s="101"/>
-      <c r="M1" s="101"/>
-      <c r="N1" s="153" t="s">
+      <c r="F1" s="119"/>
+      <c r="G1" s="118" t="s">
+        <v>140</v>
+      </c>
+      <c r="H1" s="118"/>
+      <c r="I1" s="118"/>
+      <c r="J1" s="98"/>
+      <c r="K1" s="98"/>
+      <c r="L1" s="98"/>
+      <c r="M1" s="98"/>
+      <c r="N1" s="119" t="s">
         <v>0</v>
       </c>
-      <c r="O1" s="153"/>
-      <c r="P1" s="154" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q1" s="154"/>
-      <c r="R1" s="154"/>
-      <c r="S1" s="154"/>
-      <c r="T1" s="154"/>
-      <c r="U1" s="154"/>
-      <c r="V1" s="154"/>
-      <c r="W1" s="154"/>
-      <c r="X1" s="154"/>
-      <c r="Y1" s="154"/>
+      <c r="O1" s="119"/>
+      <c r="P1" s="120" t="s">
+        <v>141</v>
+      </c>
+      <c r="Q1" s="120"/>
+      <c r="R1" s="120"/>
+      <c r="S1" s="120"/>
+      <c r="T1" s="120"/>
+      <c r="U1" s="120"/>
+      <c r="V1" s="120"/>
+      <c r="W1" s="120"/>
+      <c r="X1" s="120"/>
+      <c r="Y1" s="120"/>
       <c r="Z1" s="82"/>
     </row>
-    <row r="2" spans="1:27" s="1" customFormat="1" ht="54.75" customHeight="1">
+    <row r="2" spans="1:26" s="1" customFormat="1" ht="54.5" customHeight="1">
       <c r="A2" s="83" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="102" t="s">
-        <v>161</v>
+      <c r="B2" s="99" t="s">
+        <v>148</v>
       </c>
       <c r="C2" s="83" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="D2" s="83" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="E2" s="18" t="s">
         <v>10</v>
@@ -3632,26 +2990,26 @@
       <c r="F2" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="G2" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="H2" s="103" t="s">
-        <v>165</v>
+      <c r="G2" s="100" t="s">
+        <v>144</v>
+      </c>
+      <c r="H2" s="100" t="s">
+        <v>152</v>
       </c>
       <c r="I2" s="15" t="s">
         <v>3</v>
       </c>
       <c r="J2" s="15" t="s">
-        <v>169</v>
+        <v>156</v>
       </c>
       <c r="K2" s="15" t="s">
-        <v>246</v>
+        <v>174</v>
       </c>
       <c r="L2" s="15" t="s">
-        <v>247</v>
+        <v>175</v>
       </c>
       <c r="M2" s="15" t="s">
-        <v>248</v>
+        <v>176</v>
       </c>
       <c r="N2" s="18" t="s">
         <v>10</v>
@@ -3660,28 +3018,28 @@
         <v>4</v>
       </c>
       <c r="P2" s="20" t="s">
-        <v>262</v>
+        <v>179</v>
       </c>
       <c r="Q2" s="20" t="s">
-        <v>156</v>
+        <v>146</v>
       </c>
       <c r="R2" s="30" t="s">
-        <v>263</v>
+        <v>180</v>
       </c>
       <c r="S2" s="20" t="s">
         <v>3</v>
       </c>
-      <c r="T2" s="114" t="s">
+      <c r="T2" s="105" t="s">
         <v>7</v>
       </c>
-      <c r="U2" s="114" t="s">
-        <v>246</v>
-      </c>
-      <c r="V2" s="114" t="s">
-        <v>247</v>
+      <c r="U2" s="105" t="s">
+        <v>174</v>
+      </c>
+      <c r="V2" s="105" t="s">
+        <v>175</v>
       </c>
       <c r="W2" s="20" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="X2" s="20" t="s">
         <v>15</v>
@@ -3693,1896 +3051,868 @@
         <v>22</v>
       </c>
     </row>
-    <row r="3" spans="1:27" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A3" s="104"/>
-      <c r="B3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="C3" s="104"/>
-      <c r="D3" s="105"/>
-      <c r="E3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="F3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="G3" s="105"/>
-      <c r="H3" s="105"/>
-      <c r="I3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="J3" s="105"/>
-      <c r="K3" s="105"/>
-      <c r="L3" s="105"/>
-      <c r="M3" s="105"/>
-      <c r="N3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="O3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="P3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="Q3" s="105"/>
-      <c r="R3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="S3" s="106" t="s">
-        <v>117</v>
-      </c>
-      <c r="T3" s="116" t="s">
-        <v>117</v>
-      </c>
-      <c r="U3" s="105"/>
-      <c r="V3" s="105"/>
-      <c r="W3" s="105"/>
-      <c r="X3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="Y3" s="105" t="s">
-        <v>117</v>
-      </c>
-      <c r="Z3" s="107" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="4" spans="1:27" s="113" customFormat="1" ht="409.5">
-      <c r="A4" s="108" t="s">
-        <v>118</v>
-      </c>
-      <c r="B4" s="109" t="s">
-        <v>151</v>
-      </c>
-      <c r="C4" s="108" t="s">
-        <v>150</v>
-      </c>
-      <c r="D4" s="108" t="s">
-        <v>159</v>
-      </c>
-      <c r="E4" s="110" t="s">
-        <v>171</v>
-      </c>
-      <c r="F4" s="110" t="s">
-        <v>172</v>
-      </c>
-      <c r="G4" s="108" t="s">
-        <v>160</v>
-      </c>
-      <c r="H4" s="108" t="s">
-        <v>234</v>
-      </c>
-      <c r="I4" s="108" t="s">
-        <v>119</v>
-      </c>
-      <c r="J4" s="108" t="s">
-        <v>183</v>
-      </c>
-      <c r="K4" s="108" t="s">
-        <v>255</v>
-      </c>
-      <c r="L4" s="108" t="s">
-        <v>258</v>
-      </c>
-      <c r="M4" s="108" t="s">
-        <v>256</v>
-      </c>
-      <c r="N4" s="110" t="s">
-        <v>184</v>
-      </c>
-      <c r="O4" s="110" t="s">
-        <v>152</v>
-      </c>
-      <c r="P4" s="108" t="s">
-        <v>158</v>
-      </c>
-      <c r="Q4" s="108" t="s">
-        <v>153</v>
-      </c>
-      <c r="R4" s="108" t="s">
-        <v>253</v>
-      </c>
-      <c r="S4" s="108" t="s">
-        <v>252</v>
-      </c>
-      <c r="T4" s="115" t="s">
-        <v>154</v>
-      </c>
-      <c r="U4" s="108" t="s">
-        <v>259</v>
-      </c>
-      <c r="V4" s="108" t="s">
-        <v>260</v>
-      </c>
-      <c r="W4" s="108" t="s">
-        <v>261</v>
-      </c>
-      <c r="X4" s="108" t="s">
-        <v>155</v>
-      </c>
-      <c r="Y4" s="111" t="s">
-        <v>120</v>
-      </c>
-      <c r="Z4" s="112" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="5" spans="1:27" s="135" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A5" s="148" t="s">
-        <v>233</v>
-      </c>
-      <c r="B5" s="130"/>
-      <c r="C5" s="131"/>
-      <c r="D5" s="131"/>
-      <c r="E5" s="131"/>
-      <c r="F5" s="131"/>
-      <c r="G5" s="131"/>
-      <c r="H5" s="131"/>
-      <c r="I5" s="131"/>
-      <c r="J5" s="131"/>
-      <c r="K5" s="131"/>
-      <c r="L5" s="131"/>
-      <c r="M5" s="131"/>
-      <c r="N5" s="132"/>
-      <c r="O5" s="132"/>
-      <c r="P5" s="131"/>
-      <c r="Q5" s="131"/>
-      <c r="R5" s="131"/>
-      <c r="S5" s="131"/>
-      <c r="T5" s="131"/>
-      <c r="U5" s="131"/>
-      <c r="V5" s="131"/>
-      <c r="W5" s="131"/>
-      <c r="X5" s="131"/>
-      <c r="Y5" s="133"/>
-      <c r="Z5" s="134"/>
-    </row>
-    <row r="6" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A6" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B6" s="34" t="s">
-        <v>187</v>
-      </c>
-      <c r="C6" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D6" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E6" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H6" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="I6" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="J6" s="34" t="s">
-        <v>191</v>
-      </c>
-      <c r="K6" s="56"/>
-      <c r="L6" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="M6" s="56" t="s">
-        <v>55</v>
-      </c>
-      <c r="N6" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="O6" s="136"/>
-      <c r="P6" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q6" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R6" s="35" t="s">
-        <v>173</v>
-      </c>
-      <c r="S6" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="T6" s="35" t="s">
-        <v>193</v>
-      </c>
-      <c r="U6" s="35"/>
-      <c r="V6" s="35"/>
-      <c r="W6" s="35"/>
-      <c r="X6" s="35"/>
-      <c r="Y6" s="35"/>
-      <c r="Z6" s="138"/>
-      <c r="AA6" s="100"/>
-    </row>
-    <row r="7" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A7" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B7" s="34" t="s">
-        <v>30</v>
-      </c>
-      <c r="C7" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D7" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E7" s="129" t="s">
-        <v>189</v>
-      </c>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H7" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="I7" s="56" t="s">
-        <v>174</v>
-      </c>
-      <c r="J7" s="34" t="s">
-        <v>194</v>
-      </c>
-      <c r="K7" s="56" t="s">
-        <v>254</v>
-      </c>
-      <c r="L7" s="56"/>
-      <c r="M7" s="56" t="s">
-        <v>249</v>
-      </c>
-      <c r="N7" s="136" t="s">
-        <v>189</v>
-      </c>
-      <c r="O7" s="136"/>
-      <c r="P7" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q7" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R7" s="35" t="s">
-        <v>30</v>
-      </c>
-      <c r="S7" s="137" t="s">
-        <v>174</v>
-      </c>
-      <c r="T7" s="35" t="s">
-        <v>257</v>
-      </c>
-      <c r="U7" s="35"/>
-      <c r="V7" s="35"/>
-      <c r="W7" s="35"/>
-      <c r="X7" s="35"/>
-      <c r="Y7" s="35"/>
-      <c r="Z7" s="138"/>
-      <c r="AA7" s="100"/>
-    </row>
-    <row r="8" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A8" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B8" s="6" t="s">
-        <v>195</v>
-      </c>
-      <c r="C8" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E8" s="139" t="s">
-        <v>196</v>
-      </c>
-      <c r="F8" s="140"/>
-      <c r="G8" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H8" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I8" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J8" s="7" t="s">
-        <v>198</v>
-      </c>
-      <c r="K8" s="7"/>
-      <c r="L8" s="7"/>
-      <c r="M8" s="7"/>
-      <c r="N8" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="P8" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R8" s="129" t="s">
-        <v>200</v>
-      </c>
-      <c r="S8" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T8" s="142" t="s">
-        <v>201</v>
-      </c>
-      <c r="U8" s="142"/>
-      <c r="V8" s="142"/>
-      <c r="W8" s="35"/>
-      <c r="X8" s="35"/>
-      <c r="Y8" s="35"/>
-      <c r="Z8" s="143"/>
-      <c r="AA8" s="86"/>
-    </row>
-    <row r="9" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A9" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C9" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E9" s="139" t="s">
-        <v>189</v>
-      </c>
-      <c r="F9" s="140"/>
-      <c r="G9" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H9" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I9" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="K9" s="7"/>
-      <c r="L9" s="7"/>
-      <c r="M9" s="7"/>
-      <c r="N9" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O9" s="144"/>
-      <c r="P9" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q9" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R9" s="129" t="s">
-        <v>204</v>
-      </c>
-      <c r="S9" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T9" s="35" t="s">
-        <v>205</v>
-      </c>
-      <c r="U9" s="35"/>
-      <c r="V9" s="35"/>
-      <c r="W9" s="35"/>
-      <c r="X9" s="35"/>
-      <c r="Y9" s="35"/>
-      <c r="Z9" s="35"/>
-      <c r="AA9" s="86"/>
-    </row>
-    <row r="10" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A10" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B10" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C10" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D10" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E10" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F10" s="140"/>
-      <c r="G10" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H10" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I10" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J10" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K10" s="7"/>
-      <c r="L10" s="7"/>
-      <c r="M10" s="7"/>
-      <c r="N10" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O10" s="144"/>
-      <c r="P10" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q10" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R10" s="129" t="s">
-        <v>207</v>
-      </c>
-      <c r="S10" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T10" s="35" t="s">
-        <v>208</v>
-      </c>
-      <c r="U10" s="35"/>
-      <c r="V10" s="35"/>
-      <c r="W10" s="35"/>
-      <c r="X10" s="35"/>
-      <c r="Y10" s="35"/>
-      <c r="Z10" s="35"/>
-      <c r="AA10" s="86"/>
-    </row>
-    <row r="11" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A11" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B11" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C11" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D11" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E11" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F11" s="140"/>
-      <c r="G11" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H11" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I11" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J11" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="K11" s="7"/>
-      <c r="L11" s="7"/>
-      <c r="M11" s="7"/>
-      <c r="N11" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O11" s="144"/>
-      <c r="P11" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q11" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R11" s="129" t="s">
-        <v>210</v>
-      </c>
-      <c r="S11" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T11" s="142" t="s">
-        <v>211</v>
-      </c>
-      <c r="U11" s="142"/>
-      <c r="V11" s="142"/>
-      <c r="W11" s="35"/>
-      <c r="X11" s="35" t="s">
-        <v>212</v>
-      </c>
-      <c r="Y11" s="35"/>
-      <c r="Z11" s="35"/>
-      <c r="AA11" s="86"/>
-    </row>
-    <row r="12" spans="1:27" s="85" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A12" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B12" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C12" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D12" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E12" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F12" s="140"/>
-      <c r="G12" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H12" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I12" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K12" s="7"/>
-      <c r="L12" s="7"/>
-      <c r="M12" s="7"/>
-      <c r="N12" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O12" s="144"/>
-      <c r="P12" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q12" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R12" s="129" t="s">
-        <v>214</v>
-      </c>
-      <c r="S12" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T12" s="142" t="s">
-        <v>215</v>
-      </c>
-      <c r="U12" s="142"/>
-      <c r="V12" s="142"/>
-      <c r="W12" s="35"/>
-      <c r="X12" s="35" t="s">
-        <v>216</v>
-      </c>
-      <c r="Y12" s="35"/>
-      <c r="Z12" s="34"/>
-      <c r="AA12" s="87"/>
-    </row>
-    <row r="13" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A13" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B13" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C13" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E13" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F13" s="140"/>
-      <c r="G13" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H13" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I13" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J13" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O13" s="144"/>
-      <c r="P13" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q13" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R13" s="129" t="s">
-        <v>218</v>
-      </c>
-      <c r="S13" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T13" s="142" t="s">
-        <v>219</v>
-      </c>
-      <c r="U13" s="142"/>
-      <c r="V13" s="142"/>
-      <c r="W13" s="35"/>
-      <c r="X13" s="35"/>
-      <c r="Y13" s="35"/>
-      <c r="Z13" s="35"/>
-      <c r="AA13" s="86"/>
-    </row>
-    <row r="14" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A14" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B14" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C14" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D14" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E14" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F14" s="145"/>
-      <c r="G14" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H14" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I14" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="K14" s="7"/>
-      <c r="L14" s="7"/>
-      <c r="M14" s="7"/>
-      <c r="N14" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O14" s="144"/>
-      <c r="P14" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q14" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R14" s="129" t="s">
-        <v>221</v>
-      </c>
-      <c r="S14" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="T14" s="146" t="s">
-        <v>222</v>
-      </c>
-      <c r="U14" s="146"/>
-      <c r="V14" s="146"/>
-      <c r="W14" s="35"/>
-      <c r="X14" s="35"/>
-      <c r="Y14" s="35"/>
-      <c r="Z14" s="35"/>
-      <c r="AA14" s="86"/>
-    </row>
-    <row r="15" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A15" s="129" t="s">
-        <v>157</v>
-      </c>
-      <c r="B15" s="6" t="s">
-        <v>202</v>
-      </c>
-      <c r="C15" s="129" t="s">
-        <v>188</v>
-      </c>
-      <c r="D15" s="34" t="s">
-        <v>132</v>
-      </c>
-      <c r="E15" s="139" t="s">
-        <v>202</v>
-      </c>
-      <c r="F15" s="147"/>
-      <c r="G15" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H15" s="117" t="s">
-        <v>197</v>
-      </c>
-      <c r="I15" s="141" t="s">
-        <v>235</v>
-      </c>
-      <c r="J15" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="K15" s="7"/>
-      <c r="L15" s="7"/>
-      <c r="M15" s="7"/>
-      <c r="N15" s="129" t="s">
-        <v>199</v>
-      </c>
-      <c r="O15" s="144"/>
-      <c r="P15" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q15" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R15" s="129" t="s">
-        <v>224</v>
-      </c>
-      <c r="S15" s="84" t="s">
-        <v>225</v>
-      </c>
-      <c r="T15" s="35" t="s">
-        <v>226</v>
-      </c>
-      <c r="U15" s="35"/>
-      <c r="V15" s="35"/>
-      <c r="W15" s="35"/>
-      <c r="X15" s="35"/>
-      <c r="Y15" s="35"/>
-      <c r="Z15" s="35"/>
-      <c r="AA15" s="86"/>
-    </row>
-    <row r="16" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A16" s="129"/>
-      <c r="B16" s="7"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="34"/>
-      <c r="E16" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="I16" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J16" s="84"/>
-      <c r="K16" s="84"/>
-      <c r="L16" s="84"/>
-      <c r="M16" s="84"/>
-      <c r="N16" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="O16" s="144"/>
-      <c r="P16" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q16" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R16" s="99" t="s">
-        <v>175</v>
-      </c>
-      <c r="S16" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="T16" s="129" t="s">
-        <v>228</v>
-      </c>
-      <c r="U16" s="129"/>
-      <c r="V16" s="129"/>
-      <c r="W16" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="X16" s="35"/>
-      <c r="Y16" s="35"/>
-      <c r="Z16" s="35"/>
-      <c r="AA16" s="86"/>
-    </row>
-    <row r="17" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A17" s="129"/>
-      <c r="B17" s="7"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="34"/>
-      <c r="E17" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="I17" s="84" t="s">
-        <v>30</v>
-      </c>
-      <c r="J17" s="84"/>
-      <c r="K17" s="84"/>
-      <c r="L17" s="84"/>
-      <c r="M17" s="84"/>
-      <c r="N17" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="O17" s="144"/>
-      <c r="P17" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q17" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R17" s="99" t="s">
-        <v>176</v>
-      </c>
-      <c r="S17" s="149" t="s">
-        <v>30</v>
-      </c>
-      <c r="T17" s="129" t="s">
-        <v>229</v>
-      </c>
-      <c r="U17" s="129"/>
-      <c r="V17" s="129"/>
-      <c r="W17" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="X17" s="35"/>
-      <c r="Y17" s="35"/>
-      <c r="Z17" s="35"/>
-      <c r="AA17" s="86"/>
-    </row>
-    <row r="18" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A18" s="129"/>
-      <c r="B18" s="7"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="34"/>
-      <c r="E18" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="I18" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="J18" s="84"/>
-      <c r="K18" s="84"/>
-      <c r="L18" s="84"/>
-      <c r="M18" s="84"/>
-      <c r="N18" s="136" t="s">
-        <v>227</v>
-      </c>
-      <c r="O18" s="144"/>
-      <c r="P18" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q18" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R18" s="99" t="s">
-        <v>177</v>
-      </c>
-      <c r="S18" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="T18" s="129" t="s">
-        <v>230</v>
-      </c>
-      <c r="U18" s="129"/>
-      <c r="V18" s="129"/>
-      <c r="W18" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="X18" s="35">
-        <v>-1</v>
-      </c>
-      <c r="Y18" s="35"/>
-      <c r="Z18" s="35"/>
-      <c r="AA18" s="86"/>
-    </row>
-    <row r="19" spans="1:27" ht="14.5" customHeight="1">
-      <c r="A19" s="129"/>
-      <c r="B19" s="7"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="34"/>
-      <c r="E19" s="129" t="s">
-        <v>227</v>
-      </c>
-      <c r="F19" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="G19" s="129" t="s">
-        <v>190</v>
-      </c>
-      <c r="H19" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="I19" s="84" t="s">
-        <v>174</v>
-      </c>
-      <c r="J19" s="84"/>
-      <c r="K19" s="84"/>
-      <c r="L19" s="84"/>
-      <c r="M19" s="84"/>
-      <c r="N19" s="35" t="s">
-        <v>189</v>
-      </c>
-      <c r="O19" s="144"/>
-      <c r="P19" s="129" t="s">
-        <v>186</v>
-      </c>
-      <c r="Q19" s="56" t="s">
-        <v>192</v>
-      </c>
-      <c r="R19" s="55" t="s">
-        <v>244</v>
-      </c>
-      <c r="S19" s="149" t="s">
-        <v>174</v>
-      </c>
-      <c r="T19" s="35" t="s">
-        <v>245</v>
-      </c>
-      <c r="U19" s="35"/>
-      <c r="V19" s="35"/>
-      <c r="W19" s="35" t="s">
-        <v>55</v>
-      </c>
-      <c r="X19" s="35"/>
-      <c r="Y19" s="35"/>
-      <c r="Z19" s="35"/>
-      <c r="AA19" s="86"/>
-    </row>
-    <row r="20" spans="1:27" s="135" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A20" s="148" t="s">
-        <v>233</v>
-      </c>
-      <c r="B20" s="130"/>
-      <c r="C20" s="131"/>
-      <c r="D20" s="131"/>
-      <c r="E20" s="131"/>
-      <c r="F20" s="131"/>
-      <c r="G20" s="131"/>
-      <c r="H20" s="131"/>
-      <c r="I20" s="131"/>
-      <c r="J20" s="131"/>
-      <c r="K20" s="131"/>
-      <c r="L20" s="131"/>
-      <c r="M20" s="131"/>
-      <c r="N20" s="132"/>
-      <c r="O20" s="132"/>
-      <c r="P20" s="131"/>
-      <c r="Q20" s="131"/>
-      <c r="R20" s="131"/>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
-      <c r="U20" s="131"/>
-      <c r="V20" s="131"/>
-      <c r="W20" s="131"/>
-      <c r="X20" s="131"/>
-      <c r="Y20" s="133"/>
-      <c r="Z20" s="134"/>
-    </row>
-    <row r="21" spans="1:27">
-      <c r="H21" s="99"/>
-      <c r="I21" s="84"/>
-      <c r="J21" s="65"/>
-      <c r="K21" s="65"/>
-      <c r="L21" s="65"/>
-      <c r="M21" s="65"/>
-      <c r="N21" s="118"/>
-      <c r="P21" s="119"/>
-      <c r="Q21" s="8"/>
-      <c r="T21" s="6"/>
-      <c r="U21" s="6"/>
-      <c r="V21" s="6"/>
-      <c r="W21" s="35"/>
-    </row>
-    <row r="22" spans="1:27" ht="14.4" customHeight="1">
-      <c r="H22" s="55"/>
-      <c r="I22" s="84"/>
-      <c r="J22" s="65"/>
-      <c r="K22" s="65"/>
-      <c r="L22" s="65"/>
-      <c r="M22" s="65"/>
-      <c r="N22" s="118"/>
-      <c r="O22" s="100"/>
-      <c r="P22" s="119"/>
-      <c r="Q22" s="8"/>
-      <c r="T22" s="8"/>
-      <c r="U22" s="8"/>
-      <c r="V22" s="8"/>
-      <c r="W22" s="35"/>
-    </row>
-    <row r="23" spans="1:27">
+    <row r="3" spans="1:26">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="5" spans="1:26">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:26">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:26">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:26">
+      <c r="A8" s="1"/>
+    </row>
+    <row r="9" spans="1:26">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:26">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:26">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:26">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:26">
+      <c r="A13" s="1"/>
+    </row>
+    <row r="14" spans="1:26">
+      <c r="A14" s="1"/>
+    </row>
+    <row r="15" spans="1:26">
+      <c r="A15" s="1"/>
+    </row>
+    <row r="16" spans="1:26">
+      <c r="A16" s="1"/>
+    </row>
+    <row r="17" spans="1:22">
+      <c r="A17" s="1"/>
+    </row>
+    <row r="18" spans="1:22">
+      <c r="A18" s="1"/>
+    </row>
+    <row r="19" spans="1:22">
+      <c r="A19" s="1"/>
+    </row>
+    <row r="20" spans="1:22">
+      <c r="A20" s="1"/>
+    </row>
+    <row r="21" spans="1:22">
+      <c r="A21" s="1"/>
+    </row>
+    <row r="22" spans="1:22">
+      <c r="A22" s="1"/>
+    </row>
+    <row r="23" spans="1:22">
       <c r="A23" s="1"/>
     </row>
-    <row r="25" spans="1:27">
-      <c r="A25" s="1"/>
-    </row>
-    <row r="26" spans="1:27">
+    <row r="24" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A24" s="88"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="89"/>
+      <c r="E24" s="89"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="89"/>
+      <c r="H24" s="89"/>
+      <c r="I24" s="90"/>
+      <c r="J24" s="90"/>
+      <c r="K24" s="90"/>
+      <c r="L24" s="90"/>
+      <c r="M24" s="90"/>
+      <c r="N24" s="89"/>
+      <c r="O24" s="89"/>
+      <c r="P24" s="86"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+    </row>
+    <row r="25" spans="1:22">
+      <c r="A25" s="50"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="50"/>
+      <c r="D25" s="84"/>
+      <c r="E25" s="84"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="93"/>
+      <c r="I25" s="84"/>
+      <c r="J25" s="84"/>
+      <c r="K25" s="84"/>
+      <c r="L25" s="84"/>
+      <c r="M25" s="84"/>
+      <c r="N25" s="84"/>
+      <c r="O25" s="84"/>
+      <c r="P25" s="94"/>
+    </row>
+    <row r="26" spans="1:22">
       <c r="A26" s="1"/>
-    </row>
-    <row r="27" spans="1:27">
-      <c r="A27" s="1"/>
-    </row>
-    <row r="28" spans="1:27">
-      <c r="A28" s="1"/>
-    </row>
-    <row r="29" spans="1:27">
-      <c r="A29" s="1"/>
-    </row>
-    <row r="30" spans="1:27">
-      <c r="A30" s="1"/>
-    </row>
-    <row r="31" spans="1:27">
-      <c r="A31" s="1"/>
-    </row>
-    <row r="32" spans="1:27">
-      <c r="A32" s="1"/>
-    </row>
-    <row r="33" spans="1:22">
-      <c r="A33" s="1"/>
-    </row>
-    <row r="34" spans="1:22">
-      <c r="A34" s="1"/>
-    </row>
-    <row r="35" spans="1:22">
-      <c r="A35" s="1"/>
-    </row>
-    <row r="36" spans="1:22">
-      <c r="A36" s="1"/>
-    </row>
-    <row r="37" spans="1:22">
-      <c r="A37" s="1"/>
-    </row>
-    <row r="38" spans="1:22">
-      <c r="A38" s="1"/>
-    </row>
-    <row r="39" spans="1:22">
-      <c r="A39" s="1"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="1"/>
-    </row>
-    <row r="41" spans="1:22">
-      <c r="A41" s="1"/>
-    </row>
-    <row r="42" spans="1:22">
-      <c r="A42" s="1"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="1"/>
-    </row>
-    <row r="44" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A44" s="89"/>
-      <c r="B44" s="90"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="90"/>
-      <c r="E44" s="90"/>
-      <c r="F44" s="90"/>
-      <c r="G44" s="90"/>
-      <c r="H44" s="90"/>
-      <c r="I44" s="91"/>
-      <c r="J44" s="91"/>
-      <c r="K44" s="91"/>
-      <c r="L44" s="91"/>
-      <c r="M44" s="91"/>
-      <c r="N44" s="90"/>
-      <c r="O44" s="90"/>
-      <c r="P44" s="87"/>
-      <c r="T44" s="1"/>
-      <c r="U44" s="1"/>
-      <c r="V44" s="1"/>
-    </row>
-    <row r="45" spans="1:22">
+      <c r="B26" s="84"/>
+      <c r="C26" s="50"/>
+      <c r="D26" s="84"/>
+      <c r="E26" s="84"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="92"/>
+      <c r="H26" s="93"/>
+      <c r="I26" s="84"/>
+      <c r="J26" s="84"/>
+      <c r="K26" s="84"/>
+      <c r="L26" s="84"/>
+      <c r="M26" s="84"/>
+      <c r="N26" s="84"/>
+      <c r="O26" s="84"/>
+      <c r="P26" s="94"/>
+    </row>
+    <row r="27" spans="1:22">
+      <c r="A27" s="50"/>
+      <c r="B27" s="84"/>
+      <c r="C27" s="50"/>
+      <c r="D27" s="84"/>
+      <c r="E27" s="84"/>
+      <c r="F27" s="84"/>
+      <c r="G27" s="92"/>
+      <c r="H27" s="93"/>
+      <c r="I27" s="84"/>
+      <c r="J27" s="84"/>
+      <c r="K27" s="84"/>
+      <c r="L27" s="84"/>
+      <c r="M27" s="84"/>
+      <c r="N27" s="84"/>
+      <c r="O27" s="84"/>
+      <c r="P27" s="94"/>
+    </row>
+    <row r="28" spans="1:22">
+      <c r="A28" s="50"/>
+      <c r="B28" s="84"/>
+      <c r="C28" s="50"/>
+      <c r="D28" s="84"/>
+      <c r="E28" s="84"/>
+      <c r="F28" s="84"/>
+      <c r="G28" s="92"/>
+      <c r="H28" s="93"/>
+      <c r="I28" s="84"/>
+      <c r="J28" s="84"/>
+      <c r="K28" s="84"/>
+      <c r="L28" s="84"/>
+      <c r="M28" s="84"/>
+      <c r="N28" s="84"/>
+      <c r="O28" s="84"/>
+      <c r="P28" s="94"/>
+    </row>
+    <row r="29" spans="1:22">
+      <c r="A29" s="50"/>
+      <c r="B29" s="84"/>
+      <c r="C29" s="50"/>
+      <c r="D29" s="84"/>
+      <c r="E29" s="84"/>
+      <c r="F29" s="84"/>
+      <c r="G29" s="92"/>
+      <c r="H29" s="93"/>
+      <c r="I29" s="84"/>
+      <c r="J29" s="84"/>
+      <c r="K29" s="84"/>
+      <c r="L29" s="84"/>
+      <c r="M29" s="84"/>
+      <c r="N29" s="84"/>
+      <c r="O29" s="84"/>
+      <c r="P29" s="94"/>
+    </row>
+    <row r="30" spans="1:22">
+      <c r="A30" s="50"/>
+      <c r="B30" s="84"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="84"/>
+      <c r="E30" s="84"/>
+      <c r="F30" s="84"/>
+      <c r="G30" s="92"/>
+      <c r="H30" s="93"/>
+      <c r="I30" s="84"/>
+      <c r="J30" s="84"/>
+      <c r="K30" s="84"/>
+      <c r="L30" s="84"/>
+      <c r="M30" s="84"/>
+      <c r="N30" s="84"/>
+      <c r="O30" s="84"/>
+      <c r="P30" s="94"/>
+    </row>
+    <row r="31" spans="1:22">
+      <c r="A31" s="50"/>
+      <c r="B31" s="84"/>
+      <c r="C31" s="50"/>
+      <c r="D31" s="84"/>
+      <c r="E31" s="84"/>
+      <c r="F31" s="84"/>
+      <c r="G31" s="92"/>
+      <c r="H31" s="93"/>
+      <c r="I31" s="84"/>
+      <c r="J31" s="84"/>
+      <c r="K31" s="84"/>
+      <c r="L31" s="84"/>
+      <c r="M31" s="84"/>
+      <c r="N31" s="84"/>
+      <c r="O31" s="84"/>
+      <c r="P31" s="94"/>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="50"/>
+      <c r="B32" s="84"/>
+      <c r="C32" s="50"/>
+      <c r="D32" s="84"/>
+      <c r="E32" s="84"/>
+      <c r="F32" s="84"/>
+      <c r="G32" s="92"/>
+      <c r="H32" s="93"/>
+      <c r="I32" s="84"/>
+      <c r="J32" s="84"/>
+      <c r="K32" s="84"/>
+      <c r="L32" s="84"/>
+      <c r="M32" s="84"/>
+      <c r="N32" s="84"/>
+      <c r="O32" s="84"/>
+      <c r="P32" s="94"/>
+    </row>
+    <row r="33" spans="1:16">
+      <c r="A33" s="50"/>
+      <c r="B33" s="84"/>
+      <c r="C33" s="50"/>
+      <c r="D33" s="84"/>
+      <c r="E33" s="84"/>
+      <c r="F33" s="84"/>
+      <c r="G33" s="92"/>
+      <c r="H33" s="93"/>
+      <c r="I33" s="84"/>
+      <c r="J33" s="84"/>
+      <c r="K33" s="84"/>
+      <c r="L33" s="84"/>
+      <c r="M33" s="84"/>
+      <c r="N33" s="84"/>
+      <c r="O33" s="84"/>
+      <c r="P33" s="94"/>
+    </row>
+    <row r="34" spans="1:16">
+      <c r="A34" s="50"/>
+      <c r="B34" s="84"/>
+      <c r="C34" s="50"/>
+      <c r="D34" s="84"/>
+      <c r="E34" s="84"/>
+      <c r="F34" s="84"/>
+      <c r="G34" s="92"/>
+      <c r="H34" s="93"/>
+      <c r="I34" s="84"/>
+      <c r="J34" s="84"/>
+      <c r="K34" s="84"/>
+      <c r="L34" s="84"/>
+      <c r="M34" s="84"/>
+      <c r="N34" s="84"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="94"/>
+    </row>
+    <row r="35" spans="1:16">
+      <c r="A35" s="50"/>
+      <c r="B35" s="84"/>
+      <c r="C35" s="50"/>
+      <c r="D35" s="84"/>
+      <c r="E35" s="84"/>
+      <c r="F35" s="84"/>
+      <c r="G35" s="92"/>
+      <c r="H35" s="93"/>
+      <c r="I35" s="84"/>
+      <c r="J35" s="84"/>
+      <c r="K35" s="84"/>
+      <c r="L35" s="84"/>
+      <c r="M35" s="84"/>
+      <c r="N35" s="84"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="94"/>
+    </row>
+    <row r="36" spans="1:16">
+      <c r="A36" s="50"/>
+      <c r="B36" s="84"/>
+      <c r="C36" s="50"/>
+      <c r="D36" s="84"/>
+      <c r="E36" s="84"/>
+      <c r="F36" s="84"/>
+      <c r="G36" s="92"/>
+      <c r="H36" s="93"/>
+      <c r="I36" s="84"/>
+      <c r="J36" s="84"/>
+      <c r="K36" s="84"/>
+      <c r="L36" s="84"/>
+      <c r="M36" s="84"/>
+      <c r="N36" s="84"/>
+      <c r="O36" s="84"/>
+      <c r="P36" s="94"/>
+    </row>
+    <row r="37" spans="1:16">
+      <c r="A37" s="50"/>
+      <c r="B37" s="84"/>
+      <c r="C37" s="50"/>
+      <c r="D37" s="84"/>
+      <c r="E37" s="84"/>
+      <c r="F37" s="84"/>
+      <c r="G37" s="92"/>
+      <c r="H37" s="93"/>
+      <c r="I37" s="84"/>
+      <c r="J37" s="84"/>
+      <c r="K37" s="84"/>
+      <c r="L37" s="84"/>
+      <c r="M37" s="84"/>
+      <c r="N37" s="84"/>
+      <c r="O37" s="84"/>
+      <c r="P37" s="94"/>
+    </row>
+    <row r="38" spans="1:16">
+      <c r="A38" s="50"/>
+      <c r="B38" s="84"/>
+      <c r="C38" s="50"/>
+      <c r="D38" s="84"/>
+      <c r="E38" s="84"/>
+      <c r="F38" s="84"/>
+      <c r="G38" s="92"/>
+      <c r="H38" s="93"/>
+      <c r="I38" s="84"/>
+      <c r="J38" s="84"/>
+      <c r="K38" s="84"/>
+      <c r="L38" s="84"/>
+      <c r="M38" s="84"/>
+      <c r="N38" s="84"/>
+      <c r="O38" s="84"/>
+      <c r="P38" s="94"/>
+    </row>
+    <row r="39" spans="1:16">
+      <c r="A39" s="50"/>
+      <c r="B39" s="84"/>
+      <c r="C39" s="50"/>
+      <c r="D39" s="84"/>
+      <c r="E39" s="84"/>
+      <c r="F39" s="84"/>
+      <c r="G39" s="92"/>
+      <c r="H39" s="93"/>
+      <c r="I39" s="84"/>
+      <c r="J39" s="84"/>
+      <c r="K39" s="84"/>
+      <c r="L39" s="84"/>
+      <c r="M39" s="84"/>
+      <c r="N39" s="84"/>
+      <c r="O39" s="84"/>
+      <c r="P39" s="94"/>
+    </row>
+    <row r="40" spans="1:16">
+      <c r="A40" s="50"/>
+      <c r="B40" s="84"/>
+      <c r="C40" s="50"/>
+      <c r="D40" s="84"/>
+      <c r="E40" s="84"/>
+      <c r="F40" s="84"/>
+      <c r="G40" s="92"/>
+      <c r="H40" s="93"/>
+      <c r="I40" s="84"/>
+      <c r="J40" s="84"/>
+      <c r="K40" s="84"/>
+      <c r="L40" s="84"/>
+      <c r="M40" s="84"/>
+      <c r="N40" s="84"/>
+      <c r="O40" s="84"/>
+      <c r="P40" s="94"/>
+    </row>
+    <row r="41" spans="1:16">
+      <c r="A41" s="50"/>
+      <c r="B41" s="84"/>
+      <c r="C41" s="50"/>
+      <c r="D41" s="84"/>
+      <c r="E41" s="84"/>
+      <c r="F41" s="84"/>
+      <c r="G41" s="92"/>
+      <c r="H41" s="93"/>
+      <c r="I41" s="84"/>
+      <c r="J41" s="84"/>
+      <c r="K41" s="84"/>
+      <c r="L41" s="84"/>
+      <c r="M41" s="84"/>
+      <c r="N41" s="84"/>
+      <c r="O41" s="84"/>
+      <c r="P41" s="94"/>
+    </row>
+    <row r="42" spans="1:16">
+      <c r="A42" s="50"/>
+      <c r="B42" s="84"/>
+      <c r="C42" s="50"/>
+      <c r="D42" s="84"/>
+      <c r="E42" s="84"/>
+      <c r="F42" s="84"/>
+      <c r="G42" s="92"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="84"/>
+      <c r="J42" s="84"/>
+      <c r="K42" s="84"/>
+      <c r="L42" s="84"/>
+      <c r="M42" s="84"/>
+      <c r="N42" s="84"/>
+      <c r="O42" s="84"/>
+      <c r="P42" s="94"/>
+    </row>
+    <row r="43" spans="1:16">
+      <c r="A43" s="50"/>
+      <c r="B43" s="84"/>
+      <c r="C43" s="50"/>
+      <c r="D43" s="84"/>
+      <c r="E43" s="84"/>
+      <c r="F43" s="84"/>
+      <c r="G43" s="92"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="84"/>
+      <c r="J43" s="84"/>
+      <c r="K43" s="84"/>
+      <c r="L43" s="84"/>
+      <c r="M43" s="84"/>
+      <c r="N43" s="84"/>
+      <c r="O43" s="84"/>
+      <c r="P43" s="94"/>
+    </row>
+    <row r="44" spans="1:16">
+      <c r="A44" s="50"/>
+      <c r="B44" s="84"/>
+      <c r="C44" s="50"/>
+      <c r="D44" s="84"/>
+      <c r="E44" s="84"/>
+      <c r="F44" s="84"/>
+      <c r="G44" s="92"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="84"/>
+      <c r="J44" s="84"/>
+      <c r="K44" s="84"/>
+      <c r="L44" s="84"/>
+      <c r="M44" s="84"/>
+      <c r="N44" s="84"/>
+      <c r="O44" s="84"/>
+      <c r="P44" s="94"/>
+    </row>
+    <row r="45" spans="1:16">
       <c r="A45" s="50"/>
-      <c r="B45" s="85"/>
+      <c r="B45" s="84"/>
       <c r="C45" s="50"/>
-      <c r="D45" s="85"/>
-      <c r="E45" s="85"/>
-      <c r="F45" s="85"/>
-      <c r="G45" s="93"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="85"/>
-      <c r="J45" s="85"/>
-      <c r="K45" s="85"/>
-      <c r="L45" s="85"/>
-      <c r="M45" s="85"/>
-      <c r="N45" s="85"/>
-      <c r="O45" s="85"/>
-      <c r="P45" s="95"/>
-    </row>
-    <row r="46" spans="1:22">
-      <c r="A46" s="1"/>
-      <c r="B46" s="85"/>
+      <c r="D45" s="84"/>
+      <c r="E45" s="84"/>
+      <c r="F45" s="84"/>
+      <c r="G45" s="92"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="84"/>
+      <c r="J45" s="84"/>
+      <c r="K45" s="84"/>
+      <c r="L45" s="84"/>
+      <c r="M45" s="84"/>
+      <c r="N45" s="84"/>
+      <c r="O45" s="84"/>
+      <c r="P45" s="94"/>
+    </row>
+    <row r="46" spans="1:16">
+      <c r="A46" s="50"/>
+      <c r="B46" s="84"/>
       <c r="C46" s="50"/>
-      <c r="D46" s="85"/>
-      <c r="E46" s="85"/>
-      <c r="F46" s="85"/>
-      <c r="G46" s="93"/>
-      <c r="H46" s="94"/>
-      <c r="I46" s="85"/>
-      <c r="J46" s="85"/>
-      <c r="K46" s="85"/>
-      <c r="L46" s="85"/>
-      <c r="M46" s="85"/>
-      <c r="N46" s="85"/>
-      <c r="O46" s="85"/>
-      <c r="P46" s="95"/>
-    </row>
-    <row r="47" spans="1:22">
+      <c r="D46" s="84"/>
+      <c r="E46" s="84"/>
+      <c r="F46" s="84"/>
+      <c r="G46" s="92"/>
+      <c r="H46" s="93"/>
+      <c r="I46" s="84"/>
+      <c r="J46" s="84"/>
+      <c r="K46" s="84"/>
+      <c r="L46" s="84"/>
+      <c r="M46" s="84"/>
+      <c r="N46" s="84"/>
+      <c r="O46" s="84"/>
+      <c r="P46" s="94"/>
+    </row>
+    <row r="47" spans="1:16">
       <c r="A47" s="50"/>
-      <c r="B47" s="85"/>
+      <c r="B47" s="84"/>
       <c r="C47" s="50"/>
-      <c r="D47" s="85"/>
-      <c r="E47" s="85"/>
-      <c r="F47" s="85"/>
-      <c r="G47" s="93"/>
-      <c r="H47" s="94"/>
-      <c r="I47" s="85"/>
-      <c r="J47" s="85"/>
-      <c r="K47" s="85"/>
-      <c r="L47" s="85"/>
-      <c r="M47" s="85"/>
-      <c r="N47" s="85"/>
-      <c r="O47" s="85"/>
-      <c r="P47" s="95"/>
-    </row>
-    <row r="48" spans="1:22">
+      <c r="D47" s="84"/>
+      <c r="E47" s="84"/>
+      <c r="F47" s="84"/>
+      <c r="G47" s="92"/>
+      <c r="H47" s="93"/>
+      <c r="I47" s="84"/>
+      <c r="J47" s="84"/>
+      <c r="K47" s="84"/>
+      <c r="L47" s="84"/>
+      <c r="M47" s="84"/>
+      <c r="N47" s="84"/>
+      <c r="O47" s="84"/>
+      <c r="P47" s="94"/>
+    </row>
+    <row r="48" spans="1:16">
       <c r="A48" s="50"/>
-      <c r="B48" s="85"/>
+      <c r="B48" s="84"/>
       <c r="C48" s="50"/>
-      <c r="D48" s="85"/>
-      <c r="E48" s="85"/>
-      <c r="F48" s="85"/>
-      <c r="G48" s="93"/>
-      <c r="H48" s="94"/>
-      <c r="I48" s="85"/>
-      <c r="J48" s="85"/>
-      <c r="K48" s="85"/>
-      <c r="L48" s="85"/>
-      <c r="M48" s="85"/>
-      <c r="N48" s="85"/>
-      <c r="O48" s="85"/>
-      <c r="P48" s="95"/>
-    </row>
-    <row r="49" spans="1:16">
+      <c r="D48" s="84"/>
+      <c r="E48" s="84"/>
+      <c r="F48" s="84"/>
+      <c r="G48" s="92"/>
+      <c r="H48" s="93"/>
+      <c r="I48" s="84"/>
+      <c r="J48" s="84"/>
+      <c r="K48" s="84"/>
+      <c r="L48" s="84"/>
+      <c r="M48" s="84"/>
+      <c r="N48" s="84"/>
+      <c r="O48" s="84"/>
+      <c r="P48" s="94"/>
+    </row>
+    <row r="49" spans="1:22">
       <c r="A49" s="50"/>
-      <c r="B49" s="85"/>
+      <c r="B49" s="84"/>
       <c r="C49" s="50"/>
-      <c r="D49" s="85"/>
-      <c r="E49" s="85"/>
-      <c r="F49" s="85"/>
-      <c r="G49" s="93"/>
-      <c r="H49" s="94"/>
-      <c r="I49" s="85"/>
-      <c r="J49" s="85"/>
-      <c r="K49" s="85"/>
-      <c r="L49" s="85"/>
-      <c r="M49" s="85"/>
-      <c r="N49" s="85"/>
-      <c r="O49" s="85"/>
-      <c r="P49" s="95"/>
-    </row>
-    <row r="50" spans="1:16">
+      <c r="D49" s="84"/>
+      <c r="E49" s="84"/>
+      <c r="F49" s="84"/>
+      <c r="G49" s="92"/>
+      <c r="H49" s="93"/>
+      <c r="I49" s="84"/>
+      <c r="J49" s="84"/>
+      <c r="K49" s="84"/>
+      <c r="L49" s="84"/>
+      <c r="M49" s="84"/>
+      <c r="N49" s="84"/>
+      <c r="O49" s="84"/>
+      <c r="P49" s="94"/>
+    </row>
+    <row r="50" spans="1:22">
       <c r="A50" s="50"/>
-      <c r="B50" s="85"/>
+      <c r="B50" s="84"/>
       <c r="C50" s="50"/>
-      <c r="D50" s="85"/>
-      <c r="E50" s="85"/>
-      <c r="F50" s="85"/>
-      <c r="G50" s="93"/>
-      <c r="H50" s="94"/>
-      <c r="I50" s="85"/>
-      <c r="J50" s="85"/>
-      <c r="K50" s="85"/>
-      <c r="L50" s="85"/>
-      <c r="M50" s="85"/>
-      <c r="N50" s="85"/>
-      <c r="O50" s="85"/>
-      <c r="P50" s="95"/>
-    </row>
-    <row r="51" spans="1:16">
+      <c r="D50" s="84"/>
+      <c r="E50" s="84"/>
+      <c r="F50" s="84"/>
+      <c r="G50" s="92"/>
+      <c r="H50" s="93"/>
+      <c r="I50" s="84"/>
+      <c r="J50" s="84"/>
+      <c r="K50" s="84"/>
+      <c r="L50" s="84"/>
+      <c r="M50" s="84"/>
+      <c r="N50" s="84"/>
+      <c r="O50" s="84"/>
+      <c r="P50" s="94"/>
+    </row>
+    <row r="51" spans="1:22">
       <c r="A51" s="50"/>
-      <c r="B51" s="85"/>
+      <c r="B51" s="84"/>
       <c r="C51" s="50"/>
-      <c r="D51" s="85"/>
-      <c r="E51" s="85"/>
-      <c r="F51" s="85"/>
-      <c r="G51" s="93"/>
-      <c r="H51" s="94"/>
-      <c r="I51" s="85"/>
-      <c r="J51" s="85"/>
-      <c r="K51" s="85"/>
-      <c r="L51" s="85"/>
-      <c r="M51" s="85"/>
-      <c r="N51" s="85"/>
-      <c r="O51" s="85"/>
-      <c r="P51" s="95"/>
-    </row>
-    <row r="52" spans="1:16">
+      <c r="D51" s="84"/>
+      <c r="E51" s="84"/>
+      <c r="F51" s="84"/>
+      <c r="G51" s="92"/>
+      <c r="H51" s="93"/>
+      <c r="I51" s="84"/>
+      <c r="J51" s="84"/>
+      <c r="K51" s="84"/>
+      <c r="L51" s="84"/>
+      <c r="M51" s="84"/>
+      <c r="N51" s="84"/>
+      <c r="O51" s="84"/>
+      <c r="P51" s="94"/>
+    </row>
+    <row r="52" spans="1:22">
       <c r="A52" s="50"/>
-      <c r="B52" s="85"/>
+      <c r="B52" s="84"/>
       <c r="C52" s="50"/>
-      <c r="D52" s="85"/>
-      <c r="E52" s="85"/>
-      <c r="F52" s="85"/>
-      <c r="G52" s="93"/>
-      <c r="H52" s="94"/>
-      <c r="I52" s="85"/>
-      <c r="J52" s="85"/>
-      <c r="K52" s="85"/>
-      <c r="L52" s="85"/>
-      <c r="M52" s="85"/>
-      <c r="N52" s="85"/>
-      <c r="O52" s="85"/>
-      <c r="P52" s="95"/>
-    </row>
-    <row r="53" spans="1:16">
+      <c r="D52" s="84"/>
+      <c r="E52" s="84"/>
+      <c r="F52" s="84"/>
+      <c r="G52" s="92"/>
+      <c r="H52" s="93"/>
+      <c r="I52" s="84"/>
+      <c r="J52" s="84"/>
+      <c r="K52" s="84"/>
+      <c r="L52" s="84"/>
+      <c r="M52" s="84"/>
+      <c r="N52" s="84"/>
+      <c r="O52" s="84"/>
+      <c r="P52" s="94"/>
+    </row>
+    <row r="53" spans="1:22">
       <c r="A53" s="50"/>
-      <c r="B53" s="85"/>
+      <c r="B53" s="84"/>
       <c r="C53" s="50"/>
-      <c r="D53" s="85"/>
-      <c r="E53" s="85"/>
-      <c r="F53" s="85"/>
-      <c r="G53" s="93"/>
-      <c r="H53" s="94"/>
-      <c r="I53" s="85"/>
-      <c r="J53" s="85"/>
-      <c r="K53" s="85"/>
-      <c r="L53" s="85"/>
-      <c r="M53" s="85"/>
-      <c r="N53" s="85"/>
-      <c r="O53" s="85"/>
-      <c r="P53" s="95"/>
-    </row>
-    <row r="54" spans="1:16">
+      <c r="D53" s="84"/>
+      <c r="E53" s="84"/>
+      <c r="F53" s="84"/>
+      <c r="G53" s="92"/>
+      <c r="H53" s="93"/>
+      <c r="I53" s="84"/>
+      <c r="J53" s="84"/>
+      <c r="K53" s="84"/>
+      <c r="L53" s="84"/>
+      <c r="M53" s="84"/>
+      <c r="N53" s="84"/>
+      <c r="O53" s="84"/>
+      <c r="P53" s="94"/>
+    </row>
+    <row r="54" spans="1:22">
       <c r="A54" s="50"/>
-      <c r="B54" s="85"/>
+      <c r="B54" s="84"/>
       <c r="C54" s="50"/>
-      <c r="D54" s="85"/>
-      <c r="E54" s="85"/>
-      <c r="F54" s="85"/>
-      <c r="G54" s="93"/>
-      <c r="H54" s="94"/>
-      <c r="I54" s="85"/>
-      <c r="J54" s="85"/>
-      <c r="K54" s="85"/>
-      <c r="L54" s="85"/>
-      <c r="M54" s="85"/>
-      <c r="N54" s="85"/>
-      <c r="O54" s="85"/>
-      <c r="P54" s="95"/>
-    </row>
-    <row r="55" spans="1:16">
-      <c r="A55" s="50"/>
-      <c r="B55" s="85"/>
-      <c r="C55" s="50"/>
-      <c r="D55" s="85"/>
-      <c r="E55" s="85"/>
-      <c r="F55" s="85"/>
-      <c r="G55" s="93"/>
-      <c r="H55" s="94"/>
-      <c r="I55" s="85"/>
-      <c r="J55" s="85"/>
-      <c r="K55" s="85"/>
-      <c r="L55" s="85"/>
-      <c r="M55" s="85"/>
-      <c r="N55" s="85"/>
-      <c r="O55" s="85"/>
-      <c r="P55" s="95"/>
-    </row>
-    <row r="56" spans="1:16">
-      <c r="A56" s="50"/>
-      <c r="B56" s="85"/>
-      <c r="C56" s="50"/>
-      <c r="D56" s="85"/>
-      <c r="E56" s="85"/>
-      <c r="F56" s="85"/>
-      <c r="G56" s="93"/>
-      <c r="H56" s="94"/>
-      <c r="I56" s="85"/>
-      <c r="J56" s="85"/>
-      <c r="K56" s="85"/>
-      <c r="L56" s="85"/>
-      <c r="M56" s="85"/>
-      <c r="N56" s="85"/>
-      <c r="O56" s="85"/>
-      <c r="P56" s="95"/>
-    </row>
-    <row r="57" spans="1:16">
-      <c r="A57" s="50"/>
-      <c r="B57" s="85"/>
-      <c r="C57" s="50"/>
-      <c r="D57" s="85"/>
-      <c r="E57" s="85"/>
-      <c r="F57" s="85"/>
-      <c r="G57" s="93"/>
-      <c r="H57" s="94"/>
-      <c r="I57" s="85"/>
-      <c r="J57" s="85"/>
-      <c r="K57" s="85"/>
-      <c r="L57" s="85"/>
-      <c r="M57" s="85"/>
-      <c r="N57" s="85"/>
-      <c r="O57" s="85"/>
-      <c r="P57" s="95"/>
-    </row>
-    <row r="58" spans="1:16">
-      <c r="A58" s="50"/>
-      <c r="B58" s="85"/>
-      <c r="C58" s="50"/>
-      <c r="D58" s="85"/>
-      <c r="E58" s="85"/>
-      <c r="F58" s="85"/>
-      <c r="G58" s="93"/>
-      <c r="H58" s="94"/>
-      <c r="I58" s="85"/>
-      <c r="J58" s="85"/>
-      <c r="K58" s="85"/>
-      <c r="L58" s="85"/>
-      <c r="M58" s="85"/>
-      <c r="N58" s="85"/>
-      <c r="O58" s="85"/>
-      <c r="P58" s="95"/>
-    </row>
-    <row r="59" spans="1:16">
-      <c r="A59" s="50"/>
-      <c r="B59" s="85"/>
-      <c r="C59" s="50"/>
-      <c r="D59" s="85"/>
-      <c r="E59" s="85"/>
-      <c r="F59" s="85"/>
-      <c r="G59" s="93"/>
-      <c r="H59" s="94"/>
-      <c r="I59" s="85"/>
-      <c r="J59" s="85"/>
-      <c r="K59" s="85"/>
-      <c r="L59" s="85"/>
-      <c r="M59" s="85"/>
-      <c r="N59" s="85"/>
-      <c r="O59" s="85"/>
-      <c r="P59" s="95"/>
-    </row>
-    <row r="60" spans="1:16">
-      <c r="A60" s="50"/>
-      <c r="B60" s="85"/>
-      <c r="C60" s="50"/>
-      <c r="D60" s="85"/>
-      <c r="E60" s="85"/>
-      <c r="F60" s="85"/>
-      <c r="G60" s="93"/>
-      <c r="H60" s="94"/>
-      <c r="I60" s="85"/>
-      <c r="J60" s="85"/>
-      <c r="K60" s="85"/>
-      <c r="L60" s="85"/>
-      <c r="M60" s="85"/>
-      <c r="N60" s="85"/>
-      <c r="O60" s="85"/>
-      <c r="P60" s="95"/>
-    </row>
-    <row r="61" spans="1:16">
-      <c r="A61" s="50"/>
-      <c r="B61" s="85"/>
-      <c r="C61" s="50"/>
-      <c r="D61" s="85"/>
-      <c r="E61" s="85"/>
-      <c r="F61" s="85"/>
-      <c r="G61" s="93"/>
-      <c r="H61" s="94"/>
-      <c r="I61" s="85"/>
-      <c r="J61" s="85"/>
-      <c r="K61" s="85"/>
-      <c r="L61" s="85"/>
-      <c r="M61" s="85"/>
-      <c r="N61" s="85"/>
-      <c r="O61" s="85"/>
-      <c r="P61" s="95"/>
-    </row>
-    <row r="62" spans="1:16">
-      <c r="A62" s="50"/>
-      <c r="B62" s="85"/>
-      <c r="C62" s="50"/>
-      <c r="D62" s="85"/>
-      <c r="E62" s="85"/>
-      <c r="F62" s="85"/>
-      <c r="G62" s="93"/>
-      <c r="H62" s="94"/>
-      <c r="I62" s="85"/>
-      <c r="J62" s="85"/>
-      <c r="K62" s="85"/>
-      <c r="L62" s="85"/>
-      <c r="M62" s="85"/>
-      <c r="N62" s="85"/>
-      <c r="O62" s="85"/>
-      <c r="P62" s="95"/>
-    </row>
-    <row r="63" spans="1:16">
-      <c r="A63" s="50"/>
-      <c r="B63" s="85"/>
-      <c r="C63" s="50"/>
-      <c r="D63" s="85"/>
-      <c r="E63" s="85"/>
-      <c r="F63" s="85"/>
-      <c r="G63" s="93"/>
-      <c r="H63" s="94"/>
-      <c r="I63" s="85"/>
-      <c r="J63" s="85"/>
-      <c r="K63" s="85"/>
-      <c r="L63" s="85"/>
-      <c r="M63" s="85"/>
-      <c r="N63" s="85"/>
-      <c r="O63" s="85"/>
-      <c r="P63" s="95"/>
-    </row>
-    <row r="64" spans="1:16">
-      <c r="A64" s="50"/>
-      <c r="B64" s="85"/>
-      <c r="C64" s="50"/>
-      <c r="D64" s="85"/>
-      <c r="E64" s="85"/>
-      <c r="F64" s="85"/>
-      <c r="G64" s="93"/>
-      <c r="H64" s="94"/>
-      <c r="I64" s="85"/>
-      <c r="J64" s="85"/>
-      <c r="K64" s="85"/>
-      <c r="L64" s="85"/>
-      <c r="M64" s="85"/>
-      <c r="N64" s="85"/>
-      <c r="O64" s="85"/>
-      <c r="P64" s="95"/>
+      <c r="D54" s="84"/>
+      <c r="E54" s="84"/>
+      <c r="F54" s="84"/>
+      <c r="G54" s="92"/>
+      <c r="H54" s="91"/>
+      <c r="I54" s="84"/>
+      <c r="J54" s="84"/>
+      <c r="K54" s="84"/>
+      <c r="L54" s="84"/>
+      <c r="M54" s="84"/>
+      <c r="N54" s="84"/>
+      <c r="O54" s="84"/>
+      <c r="P54" s="94"/>
+    </row>
+    <row r="55" spans="1:22">
+      <c r="A55" s="84"/>
+      <c r="B55" s="84"/>
+      <c r="C55" s="84"/>
+      <c r="D55" s="84"/>
+      <c r="E55" s="84"/>
+      <c r="F55" s="84"/>
+      <c r="G55" s="92"/>
+      <c r="H55" s="91"/>
+      <c r="I55" s="84"/>
+      <c r="J55" s="84"/>
+      <c r="K55" s="84"/>
+      <c r="L55" s="84"/>
+      <c r="M55" s="84"/>
+      <c r="N55" s="84"/>
+      <c r="O55" s="84"/>
+      <c r="P55" s="94"/>
+    </row>
+    <row r="56" spans="1:22">
+      <c r="A56" s="95"/>
+      <c r="B56" s="84"/>
+      <c r="C56" s="95"/>
+      <c r="D56" s="84"/>
+      <c r="E56" s="84"/>
+      <c r="F56" s="84"/>
+      <c r="G56" s="92"/>
+      <c r="H56" s="93"/>
+      <c r="I56" s="84"/>
+      <c r="J56" s="84"/>
+      <c r="K56" s="84"/>
+      <c r="L56" s="84"/>
+      <c r="M56" s="84"/>
+      <c r="N56" s="84"/>
+      <c r="O56" s="84"/>
+      <c r="P56" s="94"/>
+    </row>
+    <row r="57" spans="1:22">
+      <c r="A57" s="95"/>
+      <c r="B57" s="84"/>
+      <c r="C57" s="95"/>
+      <c r="D57" s="84"/>
+      <c r="E57" s="84"/>
+      <c r="F57" s="84"/>
+      <c r="G57" s="92"/>
+      <c r="H57" s="93"/>
+      <c r="I57" s="84"/>
+      <c r="J57" s="84"/>
+      <c r="K57" s="84"/>
+      <c r="L57" s="84"/>
+      <c r="M57" s="84"/>
+      <c r="N57" s="84"/>
+      <c r="O57" s="84"/>
+      <c r="P57" s="94"/>
+    </row>
+    <row r="58" spans="1:22">
+      <c r="A58" s="95"/>
+      <c r="B58" s="84"/>
+      <c r="C58" s="95"/>
+      <c r="D58" s="84"/>
+      <c r="E58" s="84"/>
+      <c r="F58" s="84"/>
+      <c r="G58" s="92"/>
+      <c r="H58" s="93"/>
+      <c r="I58" s="84"/>
+      <c r="J58" s="84"/>
+      <c r="K58" s="84"/>
+      <c r="L58" s="84"/>
+      <c r="M58" s="84"/>
+      <c r="N58" s="84"/>
+      <c r="O58" s="84"/>
+      <c r="P58" s="94"/>
+    </row>
+    <row r="59" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A59" s="96"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="89"/>
+      <c r="D59" s="89"/>
+      <c r="E59" s="89"/>
+      <c r="F59" s="89"/>
+      <c r="G59" s="89"/>
+      <c r="H59" s="89"/>
+      <c r="I59" s="90"/>
+      <c r="J59" s="90"/>
+      <c r="K59" s="90"/>
+      <c r="L59" s="90"/>
+      <c r="M59" s="90"/>
+      <c r="N59" s="89"/>
+      <c r="O59" s="89"/>
+      <c r="P59" s="86"/>
+      <c r="T59" s="1"/>
+      <c r="U59" s="1"/>
+      <c r="V59" s="1"/>
+    </row>
+    <row r="60" spans="1:22">
+      <c r="C60" s="29"/>
+      <c r="P60" s="97"/>
+    </row>
+    <row r="61" spans="1:22">
+      <c r="A61" s="1"/>
+      <c r="C61" s="29"/>
+      <c r="P61" s="97"/>
+    </row>
+    <row r="62" spans="1:22">
+      <c r="A62" s="1"/>
+      <c r="C62" s="29"/>
+      <c r="P62" s="97"/>
+    </row>
+    <row r="63" spans="1:22">
+      <c r="A63" s="95"/>
+      <c r="B63" s="84"/>
+      <c r="C63" s="95"/>
+      <c r="D63" s="84"/>
+      <c r="E63" s="84"/>
+      <c r="F63" s="84"/>
+      <c r="H63" s="93"/>
+      <c r="I63" s="84"/>
+      <c r="J63" s="84"/>
+      <c r="K63" s="84"/>
+      <c r="L63" s="84"/>
+      <c r="M63" s="84"/>
+      <c r="N63" s="84"/>
+      <c r="O63" s="84"/>
+      <c r="P63" s="97"/>
+    </row>
+    <row r="64" spans="1:22">
+      <c r="A64" s="95"/>
+      <c r="B64" s="84"/>
+      <c r="C64" s="95"/>
+      <c r="D64" s="84"/>
+      <c r="E64" s="84"/>
+      <c r="F64" s="84"/>
+      <c r="H64" s="93"/>
+      <c r="I64" s="84"/>
+      <c r="J64" s="84"/>
+      <c r="K64" s="84"/>
+      <c r="L64" s="84"/>
+      <c r="M64" s="84"/>
+      <c r="N64" s="84"/>
+      <c r="O64" s="84"/>
+      <c r="P64" s="97"/>
     </row>
     <row r="65" spans="1:22">
-      <c r="A65" s="50"/>
-      <c r="B65" s="85"/>
-      <c r="C65" s="50"/>
-      <c r="D65" s="85"/>
-      <c r="E65" s="85"/>
-      <c r="F65" s="85"/>
-      <c r="G65" s="93"/>
-      <c r="H65" s="94"/>
-      <c r="I65" s="85"/>
-      <c r="J65" s="85"/>
-      <c r="K65" s="85"/>
-      <c r="L65" s="85"/>
-      <c r="M65" s="85"/>
-      <c r="N65" s="85"/>
-      <c r="O65" s="85"/>
-      <c r="P65" s="95"/>
-    </row>
-    <row r="66" spans="1:22">
-      <c r="A66" s="50"/>
-      <c r="B66" s="85"/>
-      <c r="C66" s="50"/>
-      <c r="D66" s="85"/>
-      <c r="E66" s="85"/>
-      <c r="F66" s="85"/>
-      <c r="G66" s="93"/>
-      <c r="H66" s="94"/>
-      <c r="I66" s="85"/>
-      <c r="J66" s="85"/>
-      <c r="K66" s="85"/>
-      <c r="L66" s="85"/>
-      <c r="M66" s="85"/>
-      <c r="N66" s="85"/>
-      <c r="O66" s="85"/>
-      <c r="P66" s="95"/>
-    </row>
-    <row r="67" spans="1:22">
-      <c r="A67" s="50"/>
-      <c r="B67" s="85"/>
-      <c r="C67" s="50"/>
-      <c r="D67" s="85"/>
-      <c r="E67" s="85"/>
-      <c r="F67" s="85"/>
-      <c r="G67" s="93"/>
-      <c r="H67" s="94"/>
-      <c r="I67" s="85"/>
-      <c r="J67" s="85"/>
-      <c r="K67" s="85"/>
-      <c r="L67" s="85"/>
-      <c r="M67" s="85"/>
-      <c r="N67" s="85"/>
-      <c r="O67" s="85"/>
-      <c r="P67" s="95"/>
-    </row>
-    <row r="68" spans="1:22">
-      <c r="A68" s="50"/>
-      <c r="B68" s="85"/>
-      <c r="C68" s="50"/>
-      <c r="D68" s="85"/>
-      <c r="E68" s="85"/>
-      <c r="F68" s="85"/>
-      <c r="G68" s="93"/>
-      <c r="H68" s="94"/>
-      <c r="I68" s="85"/>
-      <c r="J68" s="85"/>
-      <c r="K68" s="85"/>
-      <c r="L68" s="85"/>
-      <c r="M68" s="85"/>
-      <c r="N68" s="85"/>
-      <c r="O68" s="85"/>
-      <c r="P68" s="95"/>
-    </row>
-    <row r="69" spans="1:22">
-      <c r="A69" s="50"/>
-      <c r="B69" s="85"/>
-      <c r="C69" s="50"/>
-      <c r="D69" s="85"/>
-      <c r="E69" s="85"/>
-      <c r="F69" s="85"/>
-      <c r="G69" s="93"/>
-      <c r="H69" s="94"/>
-      <c r="I69" s="85"/>
-      <c r="J69" s="85"/>
-      <c r="K69" s="85"/>
-      <c r="L69" s="85"/>
-      <c r="M69" s="85"/>
-      <c r="N69" s="85"/>
-      <c r="O69" s="85"/>
-      <c r="P69" s="95"/>
-    </row>
-    <row r="70" spans="1:22">
-      <c r="A70" s="50"/>
-      <c r="B70" s="85"/>
-      <c r="C70" s="50"/>
-      <c r="D70" s="85"/>
-      <c r="E70" s="85"/>
-      <c r="F70" s="85"/>
-      <c r="G70" s="93"/>
-      <c r="H70" s="94"/>
-      <c r="I70" s="85"/>
-      <c r="J70" s="85"/>
-      <c r="K70" s="85"/>
-      <c r="L70" s="85"/>
-      <c r="M70" s="85"/>
-      <c r="N70" s="85"/>
-      <c r="O70" s="85"/>
-      <c r="P70" s="95"/>
-    </row>
-    <row r="71" spans="1:22">
-      <c r="A71" s="50"/>
-      <c r="B71" s="85"/>
-      <c r="C71" s="50"/>
-      <c r="D71" s="85"/>
-      <c r="E71" s="85"/>
-      <c r="F71" s="85"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="85"/>
-      <c r="J71" s="85"/>
-      <c r="K71" s="85"/>
-      <c r="L71" s="85"/>
-      <c r="M71" s="85"/>
-      <c r="N71" s="85"/>
-      <c r="O71" s="85"/>
-      <c r="P71" s="95"/>
-    </row>
-    <row r="72" spans="1:22">
-      <c r="A72" s="50"/>
-      <c r="B72" s="85"/>
-      <c r="C72" s="50"/>
-      <c r="D72" s="85"/>
-      <c r="E72" s="85"/>
-      <c r="F72" s="85"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="85"/>
-      <c r="J72" s="85"/>
-      <c r="K72" s="85"/>
-      <c r="L72" s="85"/>
-      <c r="M72" s="85"/>
-      <c r="N72" s="85"/>
-      <c r="O72" s="85"/>
-      <c r="P72" s="95"/>
-    </row>
-    <row r="73" spans="1:22">
-      <c r="A73" s="50"/>
-      <c r="B73" s="85"/>
-      <c r="C73" s="50"/>
-      <c r="D73" s="85"/>
-      <c r="E73" s="85"/>
-      <c r="F73" s="85"/>
-      <c r="G73" s="93"/>
-      <c r="H73" s="94"/>
-      <c r="I73" s="85"/>
-      <c r="J73" s="85"/>
-      <c r="K73" s="85"/>
-      <c r="L73" s="85"/>
-      <c r="M73" s="85"/>
-      <c r="N73" s="85"/>
-      <c r="O73" s="85"/>
-      <c r="P73" s="95"/>
-    </row>
-    <row r="74" spans="1:22">
-      <c r="A74" s="50"/>
-      <c r="B74" s="85"/>
-      <c r="C74" s="50"/>
-      <c r="D74" s="85"/>
-      <c r="E74" s="85"/>
-      <c r="F74" s="85"/>
-      <c r="G74" s="93"/>
-      <c r="H74" s="92"/>
-      <c r="I74" s="85"/>
-      <c r="J74" s="85"/>
-      <c r="K74" s="85"/>
-      <c r="L74" s="85"/>
-      <c r="M74" s="85"/>
-      <c r="N74" s="85"/>
-      <c r="O74" s="85"/>
-      <c r="P74" s="95"/>
-    </row>
-    <row r="75" spans="1:22">
-      <c r="A75" s="85"/>
-      <c r="B75" s="85"/>
-      <c r="C75" s="85"/>
-      <c r="D75" s="85"/>
-      <c r="E75" s="85"/>
-      <c r="F75" s="85"/>
-      <c r="G75" s="93"/>
-      <c r="H75" s="92"/>
-      <c r="I75" s="85"/>
-      <c r="J75" s="85"/>
-      <c r="K75" s="85"/>
-      <c r="L75" s="85"/>
-      <c r="M75" s="85"/>
-      <c r="N75" s="85"/>
-      <c r="O75" s="85"/>
-      <c r="P75" s="95"/>
-    </row>
-    <row r="76" spans="1:22">
-      <c r="A76" s="96"/>
-      <c r="B76" s="85"/>
-      <c r="C76" s="96"/>
-      <c r="D76" s="85"/>
-      <c r="E76" s="85"/>
-      <c r="F76" s="85"/>
-      <c r="G76" s="93"/>
-      <c r="H76" s="94"/>
-      <c r="I76" s="85"/>
-      <c r="J76" s="85"/>
-      <c r="K76" s="85"/>
-      <c r="L76" s="85"/>
-      <c r="M76" s="85"/>
-      <c r="N76" s="85"/>
-      <c r="O76" s="85"/>
-      <c r="P76" s="95"/>
-    </row>
-    <row r="77" spans="1:22">
-      <c r="A77" s="96"/>
-      <c r="B77" s="85"/>
-      <c r="C77" s="96"/>
-      <c r="D77" s="85"/>
-      <c r="E77" s="85"/>
-      <c r="F77" s="85"/>
-      <c r="G77" s="93"/>
-      <c r="H77" s="94"/>
-      <c r="I77" s="85"/>
-      <c r="J77" s="85"/>
-      <c r="K77" s="85"/>
-      <c r="L77" s="85"/>
-      <c r="M77" s="85"/>
-      <c r="N77" s="85"/>
-      <c r="O77" s="85"/>
-      <c r="P77" s="95"/>
-    </row>
-    <row r="78" spans="1:22">
-      <c r="A78" s="96"/>
-      <c r="B78" s="85"/>
-      <c r="C78" s="96"/>
-      <c r="D78" s="85"/>
-      <c r="E78" s="85"/>
-      <c r="F78" s="85"/>
-      <c r="G78" s="93"/>
-      <c r="H78" s="94"/>
-      <c r="I78" s="85"/>
-      <c r="J78" s="85"/>
-      <c r="K78" s="85"/>
-      <c r="L78" s="85"/>
-      <c r="M78" s="85"/>
-      <c r="N78" s="85"/>
-      <c r="O78" s="85"/>
-      <c r="P78" s="95"/>
-    </row>
-    <row r="79" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A79" s="97"/>
-      <c r="B79" s="90"/>
-      <c r="C79" s="90"/>
-      <c r="D79" s="90"/>
-      <c r="E79" s="90"/>
-      <c r="F79" s="90"/>
-      <c r="G79" s="90"/>
-      <c r="H79" s="90"/>
-      <c r="I79" s="91"/>
-      <c r="J79" s="91"/>
-      <c r="K79" s="91"/>
-      <c r="L79" s="91"/>
-      <c r="M79" s="91"/>
-      <c r="N79" s="90"/>
-      <c r="O79" s="90"/>
-      <c r="P79" s="87"/>
-      <c r="T79" s="1"/>
-      <c r="U79" s="1"/>
-      <c r="V79" s="1"/>
-    </row>
-    <row r="80" spans="1:22">
-      <c r="C80" s="29"/>
-      <c r="P80" s="98"/>
-    </row>
-    <row r="81" spans="1:22">
-      <c r="A81" s="1"/>
-      <c r="C81" s="29"/>
-      <c r="P81" s="98"/>
-    </row>
-    <row r="82" spans="1:22">
-      <c r="A82" s="1"/>
-      <c r="C82" s="29"/>
-      <c r="P82" s="98"/>
-    </row>
-    <row r="83" spans="1:22">
-      <c r="A83" s="96"/>
-      <c r="B83" s="85"/>
-      <c r="C83" s="96"/>
-      <c r="D83" s="85"/>
-      <c r="E83" s="85"/>
-      <c r="F83" s="85"/>
-      <c r="H83" s="94"/>
-      <c r="I83" s="85"/>
-      <c r="J83" s="85"/>
-      <c r="K83" s="85"/>
-      <c r="L83" s="85"/>
-      <c r="M83" s="85"/>
-      <c r="N83" s="85"/>
-      <c r="O83" s="85"/>
-      <c r="P83" s="98"/>
-    </row>
-    <row r="84" spans="1:22">
-      <c r="A84" s="96"/>
-      <c r="B84" s="85"/>
-      <c r="C84" s="96"/>
-      <c r="D84" s="85"/>
-      <c r="E84" s="85"/>
-      <c r="F84" s="85"/>
-      <c r="H84" s="94"/>
-      <c r="I84" s="85"/>
-      <c r="J84" s="85"/>
-      <c r="K84" s="85"/>
-      <c r="L84" s="85"/>
-      <c r="M84" s="85"/>
-      <c r="N84" s="85"/>
-      <c r="O84" s="85"/>
-      <c r="P84" s="98"/>
-    </row>
-    <row r="85" spans="1:22">
-      <c r="A85" s="96"/>
-      <c r="B85" s="85"/>
-      <c r="C85" s="96"/>
-      <c r="D85" s="85"/>
-      <c r="E85" s="85"/>
-      <c r="F85" s="85"/>
-      <c r="H85" s="94"/>
-      <c r="I85" s="85"/>
-      <c r="J85" s="85"/>
-      <c r="K85" s="85"/>
-      <c r="L85" s="85"/>
-      <c r="M85" s="85"/>
-      <c r="N85" s="85"/>
-      <c r="O85" s="85"/>
-      <c r="P85" s="98"/>
-    </row>
-    <row r="86" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A86" s="89"/>
-      <c r="B86" s="90"/>
-      <c r="C86" s="90"/>
-      <c r="D86" s="90"/>
-      <c r="E86" s="90"/>
-      <c r="F86" s="90"/>
-      <c r="G86" s="90"/>
-      <c r="H86" s="90"/>
-      <c r="I86" s="91"/>
-      <c r="J86" s="91"/>
-      <c r="K86" s="91"/>
-      <c r="L86" s="91"/>
-      <c r="M86" s="91"/>
-      <c r="N86" s="90"/>
-      <c r="O86" s="90"/>
-      <c r="P86" s="87"/>
-      <c r="T86" s="1"/>
-      <c r="U86" s="1"/>
-      <c r="V86" s="1"/>
-    </row>
-    <row r="87" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A87" s="89"/>
-      <c r="B87" s="90"/>
-      <c r="C87" s="90"/>
-      <c r="D87" s="90"/>
-      <c r="E87" s="90"/>
-      <c r="F87" s="90"/>
-      <c r="G87" s="90"/>
-      <c r="H87" s="90"/>
-      <c r="I87" s="91"/>
-      <c r="J87" s="91"/>
-      <c r="K87" s="91"/>
-      <c r="L87" s="91"/>
-      <c r="M87" s="91"/>
-      <c r="N87" s="90"/>
-      <c r="O87" s="90"/>
-      <c r="P87" s="87"/>
-      <c r="T87" s="1"/>
-      <c r="U87" s="1"/>
-      <c r="V87" s="1"/>
-    </row>
-    <row r="88" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A88" s="89"/>
-      <c r="B88" s="90"/>
-      <c r="C88" s="90"/>
-      <c r="D88" s="90"/>
-      <c r="E88" s="90"/>
-      <c r="F88" s="90"/>
-      <c r="G88" s="90"/>
-      <c r="H88" s="90"/>
-      <c r="I88" s="91"/>
-      <c r="J88" s="91"/>
-      <c r="K88" s="91"/>
-      <c r="L88" s="91"/>
-      <c r="M88" s="91"/>
-      <c r="N88" s="90"/>
-      <c r="O88" s="90"/>
-      <c r="P88" s="87"/>
-      <c r="T88" s="1"/>
-      <c r="U88" s="1"/>
-      <c r="V88" s="1"/>
-    </row>
-    <row r="89" spans="1:22" s="85" customFormat="1" ht="20.25" customHeight="1">
-      <c r="A89" s="89"/>
-      <c r="B89" s="90"/>
-      <c r="C89" s="90"/>
-      <c r="D89" s="90"/>
-      <c r="E89" s="90"/>
-      <c r="F89" s="90"/>
-      <c r="G89" s="90"/>
-      <c r="H89" s="90"/>
-      <c r="I89" s="91"/>
-      <c r="J89" s="91"/>
-      <c r="K89" s="91"/>
-      <c r="L89" s="91"/>
-      <c r="M89" s="91"/>
-      <c r="N89" s="90"/>
-      <c r="O89" s="90"/>
-      <c r="P89" s="87"/>
-      <c r="T89" s="1"/>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="A65" s="95"/>
+      <c r="B65" s="84"/>
+      <c r="C65" s="95"/>
+      <c r="D65" s="84"/>
+      <c r="E65" s="84"/>
+      <c r="F65" s="84"/>
+      <c r="H65" s="93"/>
+      <c r="I65" s="84"/>
+      <c r="J65" s="84"/>
+      <c r="K65" s="84"/>
+      <c r="L65" s="84"/>
+      <c r="M65" s="84"/>
+      <c r="N65" s="84"/>
+      <c r="O65" s="84"/>
+      <c r="P65" s="97"/>
+    </row>
+    <row r="66" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A66" s="88"/>
+      <c r="B66" s="89"/>
+      <c r="C66" s="89"/>
+      <c r="D66" s="89"/>
+      <c r="E66" s="89"/>
+      <c r="F66" s="89"/>
+      <c r="G66" s="89"/>
+      <c r="H66" s="89"/>
+      <c r="I66" s="90"/>
+      <c r="J66" s="90"/>
+      <c r="K66" s="90"/>
+      <c r="L66" s="90"/>
+      <c r="M66" s="90"/>
+      <c r="N66" s="89"/>
+      <c r="O66" s="89"/>
+      <c r="P66" s="86"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+    </row>
+    <row r="67" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A67" s="88"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="89"/>
+      <c r="D67" s="89"/>
+      <c r="E67" s="89"/>
+      <c r="F67" s="89"/>
+      <c r="G67" s="89"/>
+      <c r="H67" s="89"/>
+      <c r="I67" s="90"/>
+      <c r="J67" s="90"/>
+      <c r="K67" s="90"/>
+      <c r="L67" s="90"/>
+      <c r="M67" s="90"/>
+      <c r="N67" s="89"/>
+      <c r="O67" s="89"/>
+      <c r="P67" s="86"/>
+      <c r="T67" s="1"/>
+      <c r="U67" s="1"/>
+      <c r="V67" s="1"/>
+    </row>
+    <row r="68" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A68" s="88"/>
+      <c r="B68" s="89"/>
+      <c r="C68" s="89"/>
+      <c r="D68" s="89"/>
+      <c r="E68" s="89"/>
+      <c r="F68" s="89"/>
+      <c r="G68" s="89"/>
+      <c r="H68" s="89"/>
+      <c r="I68" s="90"/>
+      <c r="J68" s="90"/>
+      <c r="K68" s="90"/>
+      <c r="L68" s="90"/>
+      <c r="M68" s="90"/>
+      <c r="N68" s="89"/>
+      <c r="O68" s="89"/>
+      <c r="P68" s="86"/>
+      <c r="T68" s="1"/>
+      <c r="U68" s="1"/>
+      <c r="V68" s="1"/>
+    </row>
+    <row r="69" spans="1:22" s="84" customFormat="1" ht="20.25" customHeight="1">
+      <c r="A69" s="88"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="89"/>
+      <c r="D69" s="89"/>
+      <c r="E69" s="89"/>
+      <c r="F69" s="89"/>
+      <c r="G69" s="89"/>
+      <c r="H69" s="89"/>
+      <c r="I69" s="90"/>
+      <c r="J69" s="90"/>
+      <c r="K69" s="90"/>
+      <c r="L69" s="90"/>
+      <c r="M69" s="90"/>
+      <c r="N69" s="89"/>
+      <c r="O69" s="89"/>
+      <c r="P69" s="86"/>
+      <c r="T69" s="1"/>
+      <c r="U69" s="1"/>
+      <c r="V69" s="1"/>
     </row>
   </sheetData>
   <autoFilter ref="A2:P2" xr:uid="{8485E4EB-E6EF-42D6-98AF-743EB378EB94}"/>
@@ -5614,30 +3944,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="65" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A1" s="155" t="s">
-        <v>185</v>
-      </c>
-      <c r="B1" s="156"/>
-      <c r="C1" s="156"/>
-      <c r="D1" s="157"/>
-      <c r="E1" s="163" t="s">
+      <c r="A1" s="121" t="s">
+        <v>163</v>
+      </c>
+      <c r="B1" s="122"/>
+      <c r="C1" s="122"/>
+      <c r="D1" s="123"/>
+      <c r="E1" s="129" t="s">
         <v>0</v>
       </c>
-      <c r="F1" s="164"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="158" t="s">
+      <c r="F1" s="130"/>
+      <c r="G1" s="131"/>
+      <c r="H1" s="124" t="s">
         <v>27</v>
       </c>
-      <c r="I1" s="159"/>
-      <c r="J1" s="159"/>
-      <c r="K1" s="159"/>
-      <c r="L1" s="160"/>
-      <c r="M1" s="161" t="s">
+      <c r="I1" s="125"/>
+      <c r="J1" s="125"/>
+      <c r="K1" s="125"/>
+      <c r="L1" s="126"/>
+      <c r="M1" s="127" t="s">
         <v>1</v>
       </c>
-      <c r="N1" s="162"/>
-    </row>
-    <row r="2" spans="1:15" s="127" customFormat="1" ht="36" customHeight="1">
+      <c r="N1" s="128"/>
+    </row>
+    <row r="2" spans="1:15" s="113" customFormat="1" ht="36" customHeight="1">
       <c r="A2" s="15" t="s">
         <v>21</v>
       </c>
@@ -5680,483 +4010,483 @@
       <c r="N2" s="64" t="s">
         <v>12</v>
       </c>
-      <c r="O2" s="128"/>
-    </row>
-    <row r="3" spans="1:15" s="85" customFormat="1" ht="14.5" customHeight="1">
-      <c r="A3" s="104" t="s">
+      <c r="O2" s="114"/>
+    </row>
+    <row r="3" spans="1:15" s="84" customFormat="1" ht="14.5" customHeight="1">
+      <c r="A3" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="B3" s="105" t="s">
+      <c r="B3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="C3" s="105" t="s">
+      <c r="C3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="D3" s="105" t="s">
+      <c r="D3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="105" t="s">
+      <c r="E3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="F3" s="105" t="s">
+      <c r="F3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="G3" s="105" t="s">
+      <c r="G3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="H3" s="105" t="s">
+      <c r="H3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="I3" s="105" t="s">
+      <c r="I3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="J3" s="106" t="s">
+      <c r="J3" s="103" t="s">
         <v>117</v>
       </c>
-      <c r="K3" s="105" t="s">
+      <c r="K3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="L3" s="105" t="s">
+      <c r="L3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="M3" s="105" t="s">
+      <c r="M3" s="102" t="s">
         <v>117</v>
       </c>
-      <c r="N3" s="107" t="s">
+      <c r="N3" s="104" t="s">
         <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:15">
-      <c r="A4" s="129"/>
-      <c r="B4" s="129"/>
-      <c r="C4" s="129"/>
-      <c r="D4" s="129"/>
-      <c r="E4" s="129"/>
-      <c r="F4" s="129"/>
-      <c r="G4" s="129"/>
-      <c r="H4" s="129"/>
-      <c r="I4" s="129"/>
-      <c r="J4" s="129"/>
-      <c r="K4" s="129"/>
-      <c r="L4" s="129"/>
-      <c r="M4" s="129"/>
-      <c r="N4" s="129"/>
+      <c r="A4" s="115"/>
+      <c r="B4" s="115"/>
+      <c r="C4" s="115"/>
+      <c r="D4" s="115"/>
+      <c r="E4" s="115"/>
+      <c r="F4" s="115"/>
+      <c r="G4" s="115"/>
+      <c r="H4" s="115"/>
+      <c r="I4" s="115"/>
+      <c r="J4" s="115"/>
+      <c r="K4" s="115"/>
+      <c r="L4" s="115"/>
+      <c r="M4" s="115"/>
+      <c r="N4" s="115"/>
     </row>
     <row r="5" spans="1:15">
-      <c r="A5" s="129"/>
-      <c r="B5" s="129"/>
-      <c r="C5" s="129"/>
-      <c r="D5" s="129"/>
-      <c r="E5" s="129"/>
-      <c r="F5" s="129"/>
-      <c r="G5" s="129"/>
-      <c r="H5" s="129"/>
-      <c r="I5" s="129"/>
-      <c r="J5" s="129"/>
-      <c r="K5" s="129"/>
-      <c r="L5" s="129"/>
-      <c r="M5" s="129"/>
-      <c r="N5" s="129"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="115"/>
+      <c r="K5" s="115"/>
+      <c r="L5" s="115"/>
+      <c r="M5" s="115"/>
+      <c r="N5" s="115"/>
     </row>
     <row r="6" spans="1:15">
-      <c r="A6" s="129"/>
-      <c r="B6" s="129"/>
-      <c r="C6" s="129"/>
-      <c r="D6" s="129"/>
-      <c r="E6" s="129"/>
-      <c r="F6" s="129"/>
-      <c r="G6" s="129"/>
-      <c r="H6" s="129"/>
-      <c r="I6" s="129"/>
-      <c r="J6" s="129"/>
-      <c r="K6" s="129"/>
-      <c r="L6" s="129"/>
-      <c r="M6" s="129"/>
-      <c r="N6" s="129"/>
+      <c r="A6" s="115"/>
+      <c r="B6" s="115"/>
+      <c r="C6" s="115"/>
+      <c r="D6" s="115"/>
+      <c r="E6" s="115"/>
+      <c r="F6" s="115"/>
+      <c r="G6" s="115"/>
+      <c r="H6" s="115"/>
+      <c r="I6" s="115"/>
+      <c r="J6" s="115"/>
+      <c r="K6" s="115"/>
+      <c r="L6" s="115"/>
+      <c r="M6" s="115"/>
+      <c r="N6" s="115"/>
     </row>
     <row r="7" spans="1:15">
-      <c r="A7" s="129"/>
-      <c r="B7" s="129"/>
-      <c r="C7" s="129"/>
-      <c r="D7" s="129"/>
-      <c r="E7" s="129"/>
-      <c r="F7" s="129"/>
-      <c r="G7" s="129"/>
-      <c r="H7" s="129"/>
-      <c r="I7" s="129"/>
-      <c r="J7" s="129"/>
-      <c r="K7" s="129"/>
-      <c r="L7" s="129"/>
-      <c r="M7" s="129"/>
-      <c r="N7" s="129"/>
+      <c r="A7" s="115"/>
+      <c r="B7" s="115"/>
+      <c r="C7" s="115"/>
+      <c r="D7" s="115"/>
+      <c r="E7" s="115"/>
+      <c r="F7" s="115"/>
+      <c r="G7" s="115"/>
+      <c r="H7" s="115"/>
+      <c r="I7" s="115"/>
+      <c r="J7" s="115"/>
+      <c r="K7" s="115"/>
+      <c r="L7" s="115"/>
+      <c r="M7" s="115"/>
+      <c r="N7" s="115"/>
     </row>
     <row r="8" spans="1:15">
-      <c r="A8" s="129"/>
-      <c r="B8" s="129"/>
-      <c r="C8" s="129"/>
-      <c r="D8" s="129"/>
-      <c r="E8" s="129"/>
-      <c r="F8" s="129"/>
-      <c r="G8" s="129"/>
-      <c r="H8" s="129"/>
-      <c r="I8" s="129"/>
-      <c r="J8" s="129"/>
-      <c r="K8" s="129"/>
-      <c r="L8" s="129"/>
-      <c r="M8" s="129"/>
-      <c r="N8" s="129"/>
+      <c r="A8" s="115"/>
+      <c r="B8" s="115"/>
+      <c r="C8" s="115"/>
+      <c r="D8" s="115"/>
+      <c r="E8" s="115"/>
+      <c r="F8" s="115"/>
+      <c r="G8" s="115"/>
+      <c r="H8" s="115"/>
+      <c r="I8" s="115"/>
+      <c r="J8" s="115"/>
+      <c r="K8" s="115"/>
+      <c r="L8" s="115"/>
+      <c r="M8" s="115"/>
+      <c r="N8" s="115"/>
     </row>
     <row r="9" spans="1:15">
-      <c r="A9" s="129"/>
-      <c r="B9" s="129"/>
-      <c r="C9" s="129"/>
-      <c r="D9" s="129"/>
-      <c r="E9" s="129"/>
-      <c r="F9" s="129"/>
-      <c r="G9" s="129"/>
-      <c r="H9" s="129"/>
-      <c r="I9" s="129"/>
-      <c r="J9" s="129"/>
-      <c r="K9" s="129"/>
-      <c r="L9" s="129"/>
-      <c r="M9" s="129"/>
-      <c r="N9" s="129"/>
+      <c r="A9" s="115"/>
+      <c r="B9" s="115"/>
+      <c r="C9" s="115"/>
+      <c r="D9" s="115"/>
+      <c r="E9" s="115"/>
+      <c r="F9" s="115"/>
+      <c r="G9" s="115"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="115"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="115"/>
+      <c r="L9" s="115"/>
+      <c r="M9" s="115"/>
+      <c r="N9" s="115"/>
     </row>
     <row r="10" spans="1:15">
-      <c r="A10" s="129"/>
-      <c r="B10" s="129"/>
-      <c r="C10" s="129"/>
-      <c r="D10" s="129"/>
-      <c r="E10" s="129"/>
-      <c r="F10" s="129"/>
-      <c r="G10" s="129"/>
-      <c r="H10" s="129"/>
-      <c r="I10" s="129"/>
-      <c r="J10" s="129"/>
-      <c r="K10" s="129"/>
-      <c r="L10" s="129"/>
-      <c r="M10" s="129"/>
-      <c r="N10" s="129"/>
+      <c r="A10" s="115"/>
+      <c r="B10" s="115"/>
+      <c r="C10" s="115"/>
+      <c r="D10" s="115"/>
+      <c r="E10" s="115"/>
+      <c r="F10" s="115"/>
+      <c r="G10" s="115"/>
+      <c r="H10" s="115"/>
+      <c r="I10" s="115"/>
+      <c r="J10" s="115"/>
+      <c r="K10" s="115"/>
+      <c r="L10" s="115"/>
+      <c r="M10" s="115"/>
+      <c r="N10" s="115"/>
     </row>
     <row r="11" spans="1:15">
-      <c r="A11" s="129"/>
-      <c r="B11" s="129"/>
-      <c r="C11" s="129"/>
-      <c r="D11" s="129"/>
-      <c r="E11" s="129"/>
-      <c r="F11" s="129"/>
-      <c r="G11" s="129"/>
-      <c r="H11" s="129"/>
-      <c r="I11" s="129"/>
-      <c r="J11" s="129"/>
-      <c r="K11" s="129"/>
-      <c r="L11" s="129"/>
-      <c r="M11" s="129"/>
-      <c r="N11" s="129"/>
+      <c r="A11" s="115"/>
+      <c r="B11" s="115"/>
+      <c r="C11" s="115"/>
+      <c r="D11" s="115"/>
+      <c r="E11" s="115"/>
+      <c r="F11" s="115"/>
+      <c r="G11" s="115"/>
+      <c r="H11" s="115"/>
+      <c r="I11" s="115"/>
+      <c r="J11" s="115"/>
+      <c r="K11" s="115"/>
+      <c r="L11" s="115"/>
+      <c r="M11" s="115"/>
+      <c r="N11" s="115"/>
     </row>
     <row r="12" spans="1:15">
-      <c r="A12" s="129"/>
-      <c r="B12" s="129"/>
-      <c r="C12" s="129"/>
-      <c r="D12" s="129"/>
-      <c r="E12" s="129"/>
-      <c r="F12" s="129"/>
-      <c r="G12" s="129"/>
-      <c r="H12" s="129"/>
-      <c r="I12" s="129"/>
-      <c r="J12" s="129"/>
-      <c r="K12" s="129"/>
-      <c r="L12" s="129"/>
-      <c r="M12" s="129"/>
-      <c r="N12" s="129"/>
+      <c r="A12" s="115"/>
+      <c r="B12" s="115"/>
+      <c r="C12" s="115"/>
+      <c r="D12" s="115"/>
+      <c r="E12" s="115"/>
+      <c r="F12" s="115"/>
+      <c r="G12" s="115"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="115"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="115"/>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
     </row>
     <row r="13" spans="1:15">
-      <c r="A13" s="129"/>
-      <c r="B13" s="129"/>
-      <c r="C13" s="129"/>
-      <c r="D13" s="129"/>
-      <c r="E13" s="129"/>
-      <c r="F13" s="129"/>
-      <c r="G13" s="129"/>
-      <c r="H13" s="129"/>
-      <c r="I13" s="129"/>
-      <c r="J13" s="129"/>
-      <c r="K13" s="129"/>
-      <c r="L13" s="129"/>
-      <c r="M13" s="129"/>
-      <c r="N13" s="129"/>
+      <c r="A13" s="115"/>
+      <c r="B13" s="115"/>
+      <c r="C13" s="115"/>
+      <c r="D13" s="115"/>
+      <c r="E13" s="115"/>
+      <c r="F13" s="115"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="115"/>
+      <c r="I13" s="115"/>
+      <c r="J13" s="115"/>
+      <c r="K13" s="115"/>
+      <c r="L13" s="115"/>
+      <c r="M13" s="115"/>
+      <c r="N13" s="115"/>
     </row>
     <row r="14" spans="1:15">
-      <c r="A14" s="129"/>
-      <c r="B14" s="129"/>
-      <c r="C14" s="129"/>
-      <c r="D14" s="129"/>
-      <c r="E14" s="129"/>
-      <c r="F14" s="129"/>
-      <c r="G14" s="129"/>
-      <c r="H14" s="129"/>
-      <c r="I14" s="129"/>
-      <c r="J14" s="129"/>
-      <c r="K14" s="129"/>
-      <c r="L14" s="129"/>
-      <c r="M14" s="129"/>
-      <c r="N14" s="129"/>
+      <c r="A14" s="115"/>
+      <c r="B14" s="115"/>
+      <c r="C14" s="115"/>
+      <c r="D14" s="115"/>
+      <c r="E14" s="115"/>
+      <c r="F14" s="115"/>
+      <c r="G14" s="115"/>
+      <c r="H14" s="115"/>
+      <c r="I14" s="115"/>
+      <c r="J14" s="115"/>
+      <c r="K14" s="115"/>
+      <c r="L14" s="115"/>
+      <c r="M14" s="115"/>
+      <c r="N14" s="115"/>
     </row>
     <row r="15" spans="1:15">
-      <c r="A15" s="129"/>
-      <c r="B15" s="129"/>
-      <c r="C15" s="129"/>
-      <c r="D15" s="129"/>
-      <c r="E15" s="129"/>
-      <c r="F15" s="129"/>
-      <c r="G15" s="129"/>
-      <c r="H15" s="129"/>
-      <c r="I15" s="129"/>
-      <c r="J15" s="129"/>
-      <c r="K15" s="129"/>
-      <c r="L15" s="129"/>
-      <c r="M15" s="129"/>
-      <c r="N15" s="129"/>
+      <c r="A15" s="115"/>
+      <c r="B15" s="115"/>
+      <c r="C15" s="115"/>
+      <c r="D15" s="115"/>
+      <c r="E15" s="115"/>
+      <c r="F15" s="115"/>
+      <c r="G15" s="115"/>
+      <c r="H15" s="115"/>
+      <c r="I15" s="115"/>
+      <c r="J15" s="115"/>
+      <c r="K15" s="115"/>
+      <c r="L15" s="115"/>
+      <c r="M15" s="115"/>
+      <c r="N15" s="115"/>
     </row>
     <row r="16" spans="1:15">
-      <c r="A16" s="129"/>
-      <c r="B16" s="129"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
-      <c r="I16" s="129"/>
-      <c r="J16" s="129"/>
-      <c r="K16" s="129"/>
-      <c r="L16" s="129"/>
-      <c r="M16" s="129"/>
-      <c r="N16" s="129"/>
+      <c r="A16" s="115"/>
+      <c r="B16" s="115"/>
+      <c r="C16" s="115"/>
+      <c r="D16" s="115"/>
+      <c r="E16" s="115"/>
+      <c r="F16" s="115"/>
+      <c r="G16" s="115"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="115"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="115"/>
+      <c r="L16" s="115"/>
+      <c r="M16" s="115"/>
+      <c r="N16" s="115"/>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="129"/>
-      <c r="B17" s="129"/>
-      <c r="C17" s="129"/>
-      <c r="D17" s="129"/>
-      <c r="E17" s="129"/>
-      <c r="F17" s="129"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="129"/>
-      <c r="J17" s="129"/>
-      <c r="K17" s="129"/>
-      <c r="L17" s="129"/>
-      <c r="M17" s="129"/>
-      <c r="N17" s="129"/>
+      <c r="A17" s="115"/>
+      <c r="B17" s="115"/>
+      <c r="C17" s="115"/>
+      <c r="D17" s="115"/>
+      <c r="E17" s="115"/>
+      <c r="F17" s="115"/>
+      <c r="G17" s="115"/>
+      <c r="H17" s="115"/>
+      <c r="I17" s="115"/>
+      <c r="J17" s="115"/>
+      <c r="K17" s="115"/>
+      <c r="L17" s="115"/>
+      <c r="M17" s="115"/>
+      <c r="N17" s="115"/>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="129"/>
-      <c r="B18" s="129"/>
-      <c r="C18" s="129"/>
-      <c r="D18" s="129"/>
-      <c r="E18" s="129"/>
-      <c r="F18" s="129"/>
-      <c r="G18" s="129"/>
-      <c r="H18" s="129"/>
-      <c r="I18" s="129"/>
-      <c r="J18" s="129"/>
-      <c r="K18" s="129"/>
-      <c r="L18" s="129"/>
-      <c r="M18" s="129"/>
-      <c r="N18" s="129"/>
+      <c r="A18" s="115"/>
+      <c r="B18" s="115"/>
+      <c r="C18" s="115"/>
+      <c r="D18" s="115"/>
+      <c r="E18" s="115"/>
+      <c r="F18" s="115"/>
+      <c r="G18" s="115"/>
+      <c r="H18" s="115"/>
+      <c r="I18" s="115"/>
+      <c r="J18" s="115"/>
+      <c r="K18" s="115"/>
+      <c r="L18" s="115"/>
+      <c r="M18" s="115"/>
+      <c r="N18" s="115"/>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="129"/>
-      <c r="B19" s="129"/>
-      <c r="C19" s="129"/>
-      <c r="D19" s="129"/>
-      <c r="E19" s="129"/>
-      <c r="F19" s="129"/>
-      <c r="G19" s="129"/>
-      <c r="H19" s="129"/>
-      <c r="I19" s="129"/>
-      <c r="J19" s="129"/>
-      <c r="K19" s="129"/>
-      <c r="L19" s="129"/>
-      <c r="M19" s="129"/>
-      <c r="N19" s="129"/>
+      <c r="A19" s="115"/>
+      <c r="B19" s="115"/>
+      <c r="C19" s="115"/>
+      <c r="D19" s="115"/>
+      <c r="E19" s="115"/>
+      <c r="F19" s="115"/>
+      <c r="G19" s="115"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="115"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="115"/>
+      <c r="L19" s="115"/>
+      <c r="M19" s="115"/>
+      <c r="N19" s="115"/>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="129"/>
-      <c r="B20" s="129"/>
-      <c r="C20" s="129"/>
-      <c r="D20" s="129"/>
-      <c r="E20" s="129"/>
-      <c r="F20" s="129"/>
-      <c r="G20" s="129"/>
-      <c r="H20" s="129"/>
-      <c r="I20" s="129"/>
-      <c r="J20" s="129"/>
-      <c r="K20" s="129"/>
-      <c r="L20" s="129"/>
-      <c r="M20" s="129"/>
-      <c r="N20" s="129"/>
+      <c r="A20" s="115"/>
+      <c r="B20" s="115"/>
+      <c r="C20" s="115"/>
+      <c r="D20" s="115"/>
+      <c r="E20" s="115"/>
+      <c r="F20" s="115"/>
+      <c r="G20" s="115"/>
+      <c r="H20" s="115"/>
+      <c r="I20" s="115"/>
+      <c r="J20" s="115"/>
+      <c r="K20" s="115"/>
+      <c r="L20" s="115"/>
+      <c r="M20" s="115"/>
+      <c r="N20" s="115"/>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="129"/>
-      <c r="B21" s="129"/>
-      <c r="C21" s="129"/>
-      <c r="D21" s="129"/>
-      <c r="E21" s="129"/>
-      <c r="F21" s="129"/>
-      <c r="G21" s="129"/>
-      <c r="H21" s="129"/>
-      <c r="I21" s="129"/>
-      <c r="J21" s="129"/>
-      <c r="K21" s="129"/>
-      <c r="L21" s="129"/>
-      <c r="M21" s="129"/>
-      <c r="N21" s="129"/>
+      <c r="A21" s="115"/>
+      <c r="B21" s="115"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="115"/>
+      <c r="E21" s="115"/>
+      <c r="F21" s="115"/>
+      <c r="G21" s="115"/>
+      <c r="H21" s="115"/>
+      <c r="I21" s="115"/>
+      <c r="J21" s="115"/>
+      <c r="K21" s="115"/>
+      <c r="L21" s="115"/>
+      <c r="M21" s="115"/>
+      <c r="N21" s="115"/>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="129"/>
-      <c r="B22" s="129"/>
-      <c r="C22" s="129"/>
-      <c r="D22" s="129"/>
-      <c r="E22" s="129"/>
-      <c r="F22" s="129"/>
-      <c r="G22" s="129"/>
-      <c r="H22" s="129"/>
-      <c r="I22" s="129"/>
-      <c r="J22" s="129"/>
-      <c r="K22" s="129"/>
-      <c r="L22" s="129"/>
-      <c r="M22" s="129"/>
-      <c r="N22" s="129"/>
+      <c r="A22" s="115"/>
+      <c r="B22" s="115"/>
+      <c r="C22" s="115"/>
+      <c r="D22" s="115"/>
+      <c r="E22" s="115"/>
+      <c r="F22" s="115"/>
+      <c r="G22" s="115"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="115"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="115"/>
+      <c r="L22" s="115"/>
+      <c r="M22" s="115"/>
+      <c r="N22" s="115"/>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="129"/>
-      <c r="B23" s="129"/>
-      <c r="C23" s="129"/>
-      <c r="D23" s="129"/>
-      <c r="E23" s="129"/>
-      <c r="F23" s="129"/>
-      <c r="G23" s="129"/>
-      <c r="H23" s="129"/>
-      <c r="I23" s="129"/>
-      <c r="J23" s="129"/>
-      <c r="K23" s="129"/>
-      <c r="L23" s="129"/>
-      <c r="M23" s="129"/>
-      <c r="N23" s="129"/>
+      <c r="A23" s="115"/>
+      <c r="B23" s="115"/>
+      <c r="C23" s="115"/>
+      <c r="D23" s="115"/>
+      <c r="E23" s="115"/>
+      <c r="F23" s="115"/>
+      <c r="G23" s="115"/>
+      <c r="H23" s="115"/>
+      <c r="I23" s="115"/>
+      <c r="J23" s="115"/>
+      <c r="K23" s="115"/>
+      <c r="L23" s="115"/>
+      <c r="M23" s="115"/>
+      <c r="N23" s="115"/>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="129"/>
-      <c r="B24" s="129"/>
-      <c r="C24" s="129"/>
-      <c r="D24" s="129"/>
-      <c r="E24" s="129"/>
-      <c r="F24" s="129"/>
-      <c r="G24" s="129"/>
-      <c r="H24" s="129"/>
-      <c r="I24" s="129"/>
-      <c r="J24" s="129"/>
-      <c r="K24" s="129"/>
-      <c r="L24" s="129"/>
-      <c r="M24" s="129"/>
-      <c r="N24" s="129"/>
+      <c r="A24" s="115"/>
+      <c r="B24" s="115"/>
+      <c r="C24" s="115"/>
+      <c r="D24" s="115"/>
+      <c r="E24" s="115"/>
+      <c r="F24" s="115"/>
+      <c r="G24" s="115"/>
+      <c r="H24" s="115"/>
+      <c r="I24" s="115"/>
+      <c r="J24" s="115"/>
+      <c r="K24" s="115"/>
+      <c r="L24" s="115"/>
+      <c r="M24" s="115"/>
+      <c r="N24" s="115"/>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="129"/>
-      <c r="B25" s="129"/>
-      <c r="C25" s="129"/>
-      <c r="D25" s="129"/>
-      <c r="E25" s="129"/>
-      <c r="F25" s="129"/>
-      <c r="G25" s="129"/>
-      <c r="H25" s="129"/>
-      <c r="I25" s="129"/>
-      <c r="J25" s="129"/>
-      <c r="K25" s="129"/>
-      <c r="L25" s="129"/>
-      <c r="M25" s="129"/>
-      <c r="N25" s="129"/>
+      <c r="A25" s="115"/>
+      <c r="B25" s="115"/>
+      <c r="C25" s="115"/>
+      <c r="D25" s="115"/>
+      <c r="E25" s="115"/>
+      <c r="F25" s="115"/>
+      <c r="G25" s="115"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="115"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="115"/>
+      <c r="L25" s="115"/>
+      <c r="M25" s="115"/>
+      <c r="N25" s="115"/>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="129"/>
-      <c r="B26" s="129"/>
-      <c r="C26" s="129"/>
-      <c r="D26" s="129"/>
-      <c r="E26" s="129"/>
-      <c r="F26" s="129"/>
-      <c r="G26" s="129"/>
-      <c r="H26" s="129"/>
-      <c r="I26" s="129"/>
-      <c r="J26" s="129"/>
-      <c r="K26" s="129"/>
-      <c r="L26" s="129"/>
-      <c r="M26" s="129"/>
-      <c r="N26" s="129"/>
+      <c r="A26" s="115"/>
+      <c r="B26" s="115"/>
+      <c r="C26" s="115"/>
+      <c r="D26" s="115"/>
+      <c r="E26" s="115"/>
+      <c r="F26" s="115"/>
+      <c r="G26" s="115"/>
+      <c r="H26" s="115"/>
+      <c r="I26" s="115"/>
+      <c r="J26" s="115"/>
+      <c r="K26" s="115"/>
+      <c r="L26" s="115"/>
+      <c r="M26" s="115"/>
+      <c r="N26" s="115"/>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="129"/>
-      <c r="B27" s="129"/>
-      <c r="C27" s="129"/>
-      <c r="D27" s="129"/>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
+      <c r="A27" s="115"/>
+      <c r="B27" s="115"/>
+      <c r="C27" s="115"/>
+      <c r="D27" s="115"/>
+      <c r="E27" s="115"/>
+      <c r="F27" s="115"/>
+      <c r="G27" s="115"/>
+      <c r="H27" s="115"/>
+      <c r="I27" s="115"/>
+      <c r="J27" s="115"/>
+      <c r="K27" s="115"/>
+      <c r="L27" s="115"/>
+      <c r="M27" s="115"/>
+      <c r="N27" s="115"/>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="129"/>
-      <c r="B28" s="129"/>
-      <c r="C28" s="129"/>
-      <c r="D28" s="129"/>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
+      <c r="A28" s="115"/>
+      <c r="B28" s="115"/>
+      <c r="C28" s="115"/>
+      <c r="D28" s="115"/>
+      <c r="E28" s="115"/>
+      <c r="F28" s="115"/>
+      <c r="G28" s="115"/>
+      <c r="H28" s="115"/>
+      <c r="I28" s="115"/>
+      <c r="J28" s="115"/>
+      <c r="K28" s="115"/>
+      <c r="L28" s="115"/>
+      <c r="M28" s="115"/>
+      <c r="N28" s="115"/>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="129"/>
-      <c r="B29" s="129"/>
-      <c r="C29" s="129"/>
-      <c r="D29" s="129"/>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
+      <c r="A29" s="115"/>
+      <c r="B29" s="115"/>
+      <c r="C29" s="115"/>
+      <c r="D29" s="115"/>
+      <c r="E29" s="115"/>
+      <c r="F29" s="115"/>
+      <c r="G29" s="115"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="115"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="115"/>
+      <c r="L29" s="115"/>
+      <c r="M29" s="115"/>
+      <c r="N29" s="115"/>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="129"/>
-      <c r="B30" s="129"/>
-      <c r="C30" s="129"/>
-      <c r="D30" s="129"/>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
+      <c r="A30" s="115"/>
+      <c r="B30" s="115"/>
+      <c r="C30" s="115"/>
+      <c r="D30" s="115"/>
+      <c r="E30" s="115"/>
+      <c r="F30" s="115"/>
+      <c r="G30" s="115"/>
+      <c r="H30" s="115"/>
+      <c r="I30" s="115"/>
+      <c r="J30" s="115"/>
+      <c r="K30" s="115"/>
+      <c r="L30" s="115"/>
+      <c r="M30" s="115"/>
+      <c r="N30" s="115"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6187,83 +4517,83 @@
   <sheetData>
     <row r="1" spans="1:9" ht="15" thickBot="1">
       <c r="A1" s="78" t="s">
+        <v>120</v>
+      </c>
+      <c r="B1" s="79" t="s">
+        <v>121</v>
+      </c>
+      <c r="C1" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="D1" s="79" t="s">
+        <v>133</v>
+      </c>
+      <c r="E1" s="76" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="76" t="s">
+        <v>126</v>
+      </c>
+      <c r="G1" s="76" t="s">
+        <v>123</v>
+      </c>
+      <c r="H1" s="76" t="s">
         <v>124</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="I1" s="77" t="s">
         <v>125</v>
-      </c>
-      <c r="C1" s="79" t="s">
-        <v>131</v>
-      </c>
-      <c r="D1" s="79" t="s">
-        <v>137</v>
-      </c>
-      <c r="E1" s="76" t="s">
-        <v>126</v>
-      </c>
-      <c r="F1" s="76" t="s">
-        <v>130</v>
-      </c>
-      <c r="G1" s="76" t="s">
-        <v>127</v>
-      </c>
-      <c r="H1" s="76" t="s">
-        <v>128</v>
-      </c>
-      <c r="I1" s="77" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="2" spans="1:9" s="81" customFormat="1" ht="29">
       <c r="A2" s="80" t="s">
+        <v>130</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>131</v>
+      </c>
+      <c r="C2" s="80" t="s">
+        <v>132</v>
+      </c>
+      <c r="D2" s="80" t="s">
         <v>134</v>
       </c>
-      <c r="B2" s="80" t="s">
+      <c r="E2" s="80" t="s">
         <v>135</v>
       </c>
-      <c r="C2" s="80" t="s">
+      <c r="F2" s="80" t="s">
         <v>136</v>
       </c>
-      <c r="D2" s="80" t="s">
+      <c r="G2" s="80" t="s">
+        <v>137</v>
+      </c>
+      <c r="H2" s="80" t="s">
         <v>138</v>
       </c>
-      <c r="E2" s="80" t="s">
+      <c r="I2" s="80" t="s">
         <v>139</v>
-      </c>
-      <c r="F2" s="80" t="s">
-        <v>140</v>
-      </c>
-      <c r="G2" s="80" t="s">
-        <v>141</v>
-      </c>
-      <c r="H2" s="80" t="s">
-        <v>142</v>
-      </c>
-      <c r="I2" s="80" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" t="s">
-        <v>157</v>
+        <v>147</v>
       </c>
       <c r="B3" t="s">
         <v>27</v>
       </c>
       <c r="C3" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D3" t="s">
-        <v>162</v>
+        <v>149</v>
       </c>
       <c r="E3" t="s">
-        <v>163</v>
+        <v>150</v>
       </c>
       <c r="F3" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="G3" t="s">
-        <v>164</v>
+        <v>151</v>
       </c>
     </row>
   </sheetData>
@@ -6378,20 +4708,20 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="167" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="133" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="168" t="s">
+      <c r="E3" s="134" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="167" t="s">
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="133" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6405,7 +4735,7 @@
       <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="167"/>
+      <c r="D4" s="133"/>
       <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
@@ -6415,7 +4745,7 @@
       <c r="G4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="167"/>
+      <c r="H4" s="133"/>
     </row>
     <row r="5" spans="1:18" ht="58">
       <c r="A5" s="35" t="s">
@@ -6689,20 +5019,20 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="169" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="171" t="s">
+      <c r="E3" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="171"/>
-      <c r="G3" s="172"/>
-      <c r="H3" s="169" t="s">
+      <c r="F3" s="137"/>
+      <c r="G3" s="138"/>
+      <c r="H3" s="135" t="s">
         <v>50</v>
       </c>
     </row>
@@ -6716,7 +5046,7 @@
       <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
@@ -6726,7 +5056,7 @@
       <c r="G4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="170"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:18" ht="58">
       <c r="A5" s="35" t="s">
@@ -7030,20 +5360,20 @@
       </c>
     </row>
     <row r="3" spans="1:18">
-      <c r="A3" s="166" t="s">
+      <c r="A3" s="132" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="166"/>
-      <c r="C3" s="166"/>
-      <c r="D3" s="169" t="s">
+      <c r="B3" s="132"/>
+      <c r="C3" s="132"/>
+      <c r="D3" s="135" t="s">
         <v>48</v>
       </c>
-      <c r="E3" s="173" t="s">
+      <c r="E3" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="F3" s="173"/>
-      <c r="G3" s="174"/>
-      <c r="H3" s="169" t="s">
+      <c r="F3" s="139"/>
+      <c r="G3" s="140"/>
+      <c r="H3" s="135" t="s">
         <v>50</v>
       </c>
     </row>
@@ -7057,7 +5387,7 @@
       <c r="C4" s="31" t="s">
         <v>52</v>
       </c>
-      <c r="D4" s="170"/>
+      <c r="D4" s="136"/>
       <c r="E4" s="32" t="s">
         <v>6</v>
       </c>
@@ -7067,7 +5397,7 @@
       <c r="G4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="H4" s="170"/>
+      <c r="H4" s="136"/>
     </row>
     <row r="5" spans="1:18" ht="58">
       <c r="A5" s="35" t="s">
@@ -7346,32 +5676,32 @@
       </c>
     </row>
     <row r="3" spans="1:18" ht="32.5" customHeight="1">
-      <c r="A3" s="178" t="s">
+      <c r="A3" s="142" t="s">
         <v>47</v>
       </c>
-      <c r="B3" s="179"/>
-      <c r="C3" s="179"/>
-      <c r="D3" s="180"/>
-      <c r="E3" s="166" t="s">
+      <c r="B3" s="143"/>
+      <c r="C3" s="143"/>
+      <c r="D3" s="144"/>
+      <c r="E3" s="132" t="s">
         <v>94</v>
       </c>
-      <c r="F3" s="181" t="s">
+      <c r="F3" s="145" t="s">
         <v>48</v>
       </c>
-      <c r="G3" s="183" t="s">
+      <c r="G3" s="147" t="s">
         <v>95</v>
       </c>
-      <c r="H3" s="171"/>
-      <c r="I3" s="171"/>
-      <c r="J3" s="172"/>
-      <c r="K3" s="184" t="s">
+      <c r="H3" s="137"/>
+      <c r="I3" s="137"/>
+      <c r="J3" s="138"/>
+      <c r="K3" s="148" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="177" t="s">
+      <c r="L3" s="141" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="177"/>
-      <c r="N3" s="177"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
     </row>
     <row r="4" spans="1:18" ht="24" customHeight="1">
       <c r="A4" s="31" t="s">
@@ -7384,8 +5714,8 @@
         <v>52</v>
       </c>
       <c r="D4" s="31"/>
-      <c r="E4" s="166"/>
-      <c r="F4" s="182"/>
+      <c r="E4" s="132"/>
+      <c r="F4" s="146"/>
       <c r="G4" s="32" t="s">
         <v>53</v>
       </c>
@@ -7398,7 +5728,7 @@
       <c r="J4" s="32" t="s">
         <v>52</v>
       </c>
-      <c r="K4" s="184"/>
+      <c r="K4" s="148"/>
       <c r="L4" s="33" t="s">
         <v>9</v>
       </c>
@@ -7410,16 +5740,16 @@
       </c>
     </row>
     <row r="5" spans="1:18" ht="58">
-      <c r="A5" s="175" t="s">
+      <c r="A5" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B5" s="175" t="s">
+      <c r="B5" s="149" t="s">
         <v>31</v>
       </c>
-      <c r="C5" s="175" t="s">
+      <c r="C5" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D5" s="175" t="s">
+      <c r="D5" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E5" s="38"/>
@@ -7448,10 +5778,10 @@
       </c>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="176"/>
-      <c r="B6" s="176"/>
-      <c r="C6" s="176"/>
-      <c r="D6" s="176"/>
+      <c r="A6" s="150"/>
+      <c r="B6" s="150"/>
+      <c r="C6" s="150"/>
+      <c r="D6" s="150"/>
       <c r="E6" s="38"/>
       <c r="F6" s="36" t="s">
         <v>57</v>
@@ -7476,16 +5806,16 @@
       </c>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="175" t="s">
+      <c r="A7" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B7" s="175" t="s">
+      <c r="B7" s="149" t="s">
         <v>59</v>
       </c>
-      <c r="C7" s="175" t="s">
+      <c r="C7" s="149" t="s">
         <v>36</v>
       </c>
-      <c r="D7" s="175" t="s">
+      <c r="D7" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E7" s="38"/>
@@ -7512,10 +5842,10 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="176"/>
-      <c r="B8" s="176"/>
-      <c r="C8" s="176"/>
-      <c r="D8" s="176"/>
+      <c r="A8" s="150"/>
+      <c r="B8" s="150"/>
+      <c r="C8" s="150"/>
+      <c r="D8" s="150"/>
       <c r="E8" s="38"/>
       <c r="F8" s="36" t="s">
         <v>60</v>
@@ -7540,16 +5870,16 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="175" t="s">
+      <c r="A9" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B9" s="175" t="s">
+      <c r="B9" s="149" t="s">
         <v>101</v>
       </c>
-      <c r="C9" s="175" t="s">
+      <c r="C9" s="149" t="s">
         <v>34</v>
       </c>
-      <c r="D9" s="175" t="s">
+      <c r="D9" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E9" s="38"/>
@@ -7576,10 +5906,10 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="176"/>
-      <c r="B10" s="176"/>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
+      <c r="A10" s="150"/>
+      <c r="B10" s="150"/>
+      <c r="C10" s="150"/>
+      <c r="D10" s="150"/>
       <c r="E10" s="38"/>
       <c r="F10" s="36" t="s">
         <v>60</v>
@@ -7604,16 +5934,16 @@
       </c>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="175" t="s">
+      <c r="A11" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B11" s="175" t="s">
+      <c r="B11" s="149" t="s">
         <v>102</v>
       </c>
-      <c r="C11" s="175" t="s">
+      <c r="C11" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D11" s="175" t="s">
+      <c r="D11" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E11" s="38"/>
@@ -7640,10 +5970,10 @@
       </c>
     </row>
     <row r="12" spans="1:18">
-      <c r="A12" s="176"/>
-      <c r="B12" s="176"/>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
+      <c r="A12" s="150"/>
+      <c r="B12" s="150"/>
+      <c r="C12" s="150"/>
+      <c r="D12" s="150"/>
       <c r="E12" s="38"/>
       <c r="F12" s="36" t="s">
         <v>60</v>
@@ -7668,16 +5998,16 @@
       </c>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="175" t="s">
+      <c r="A13" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B13" s="175" t="s">
+      <c r="B13" s="149" t="s">
         <v>37</v>
       </c>
-      <c r="C13" s="175" t="s">
+      <c r="C13" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="175" t="s">
+      <c r="D13" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E13" s="40" t="s">
@@ -7702,10 +6032,10 @@
       </c>
     </row>
     <row r="14" spans="1:18">
-      <c r="A14" s="176"/>
-      <c r="B14" s="176"/>
-      <c r="C14" s="176"/>
-      <c r="D14" s="176"/>
+      <c r="A14" s="150"/>
+      <c r="B14" s="150"/>
+      <c r="C14" s="150"/>
+      <c r="D14" s="150"/>
       <c r="E14" s="40"/>
       <c r="F14" s="39" t="s">
         <v>64</v>
@@ -7726,16 +6056,16 @@
       </c>
     </row>
     <row r="15" spans="1:18" ht="116">
-      <c r="A15" s="175" t="s">
+      <c r="A15" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B15" s="175" t="s">
+      <c r="B15" s="149" t="s">
         <v>84</v>
       </c>
-      <c r="C15" s="175" t="s">
+      <c r="C15" s="149" t="s">
         <v>67</v>
       </c>
-      <c r="D15" s="175" t="s">
+      <c r="D15" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E15" s="38"/>
@@ -7764,10 +6094,10 @@
       </c>
     </row>
     <row r="16" spans="1:18" ht="58">
-      <c r="A16" s="176"/>
-      <c r="B16" s="176"/>
-      <c r="C16" s="176"/>
-      <c r="D16" s="176"/>
+      <c r="A16" s="150"/>
+      <c r="B16" s="150"/>
+      <c r="C16" s="150"/>
+      <c r="D16" s="150"/>
       <c r="E16" s="38"/>
       <c r="F16" s="41" t="s">
         <v>105</v>
@@ -7792,16 +6122,16 @@
       </c>
     </row>
     <row r="17" spans="1:14">
-      <c r="A17" s="175" t="s">
+      <c r="A17" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B17" s="175" t="s">
+      <c r="B17" s="149" t="s">
         <v>107</v>
       </c>
-      <c r="C17" s="175" t="s">
+      <c r="C17" s="149" t="s">
         <v>108</v>
       </c>
-      <c r="D17" s="175" t="s">
+      <c r="D17" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E17" s="38"/>
@@ -7828,10 +6158,10 @@
       </c>
     </row>
     <row r="18" spans="1:14">
-      <c r="A18" s="176"/>
-      <c r="B18" s="176"/>
-      <c r="C18" s="176"/>
-      <c r="D18" s="176"/>
+      <c r="A18" s="150"/>
+      <c r="B18" s="150"/>
+      <c r="C18" s="150"/>
+      <c r="D18" s="150"/>
       <c r="E18" s="38"/>
       <c r="F18" s="36" t="s">
         <v>60</v>
@@ -7856,16 +6186,16 @@
       </c>
     </row>
     <row r="19" spans="1:14">
-      <c r="A19" s="175" t="s">
+      <c r="A19" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B19" s="175" t="s">
+      <c r="B19" s="149" t="s">
         <v>42</v>
       </c>
-      <c r="C19" s="175" t="s">
+      <c r="C19" s="149" t="s">
         <v>61</v>
       </c>
-      <c r="D19" s="175" t="s">
+      <c r="D19" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E19" s="38"/>
@@ -7892,10 +6222,10 @@
       </c>
     </row>
     <row r="20" spans="1:14">
-      <c r="A20" s="176"/>
-      <c r="B20" s="176"/>
-      <c r="C20" s="176"/>
-      <c r="D20" s="176"/>
+      <c r="A20" s="150"/>
+      <c r="B20" s="150"/>
+      <c r="C20" s="150"/>
+      <c r="D20" s="150"/>
       <c r="E20" s="38"/>
       <c r="F20" s="36" t="s">
         <v>60</v>
@@ -7920,16 +6250,16 @@
       </c>
     </row>
     <row r="21" spans="1:14">
-      <c r="A21" s="175" t="s">
+      <c r="A21" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B21" s="175" t="s">
+      <c r="B21" s="149" t="s">
         <v>69</v>
       </c>
-      <c r="C21" s="175" t="s">
+      <c r="C21" s="149" t="s">
         <v>70</v>
       </c>
-      <c r="D21" s="175" t="s">
+      <c r="D21" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E21" s="38"/>
@@ -7956,10 +6286,10 @@
       </c>
     </row>
     <row r="22" spans="1:14">
-      <c r="A22" s="176"/>
-      <c r="B22" s="176"/>
-      <c r="C22" s="176"/>
-      <c r="D22" s="176"/>
+      <c r="A22" s="150"/>
+      <c r="B22" s="150"/>
+      <c r="C22" s="150"/>
+      <c r="D22" s="150"/>
       <c r="E22" s="38"/>
       <c r="F22" s="36" t="s">
         <v>60</v>
@@ -7984,16 +6314,16 @@
       </c>
     </row>
     <row r="23" spans="1:14">
-      <c r="A23" s="175" t="s">
+      <c r="A23" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B23" s="175" t="s">
+      <c r="B23" s="149" t="s">
         <v>109</v>
       </c>
-      <c r="C23" s="175" t="s">
+      <c r="C23" s="149" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="175" t="s">
+      <c r="D23" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E23" s="38"/>
@@ -8020,10 +6350,10 @@
       </c>
     </row>
     <row r="24" spans="1:14">
-      <c r="A24" s="176"/>
-      <c r="B24" s="176"/>
-      <c r="C24" s="176"/>
-      <c r="D24" s="176"/>
+      <c r="A24" s="150"/>
+      <c r="B24" s="150"/>
+      <c r="C24" s="150"/>
+      <c r="D24" s="150"/>
       <c r="E24" s="38"/>
       <c r="F24" s="36" t="s">
         <v>60</v>
@@ -8048,16 +6378,16 @@
       </c>
     </row>
     <row r="25" spans="1:14">
-      <c r="A25" s="175" t="s">
+      <c r="A25" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B25" s="175" t="s">
+      <c r="B25" s="149" t="s">
         <v>110</v>
       </c>
-      <c r="C25" s="175" t="s">
+      <c r="C25" s="149" t="s">
         <v>111</v>
       </c>
-      <c r="D25" s="175" t="s">
+      <c r="D25" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E25" s="38"/>
@@ -8084,10 +6414,10 @@
       </c>
     </row>
     <row r="26" spans="1:14">
-      <c r="A26" s="176"/>
-      <c r="B26" s="176"/>
-      <c r="C26" s="176"/>
-      <c r="D26" s="176"/>
+      <c r="A26" s="150"/>
+      <c r="B26" s="150"/>
+      <c r="C26" s="150"/>
+      <c r="D26" s="150"/>
       <c r="E26" s="38"/>
       <c r="F26" s="36" t="s">
         <v>60</v>
@@ -8112,16 +6442,16 @@
       </c>
     </row>
     <row r="27" spans="1:14">
-      <c r="A27" s="175" t="s">
+      <c r="A27" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B27" s="175" t="s">
+      <c r="B27" s="149" t="s">
         <v>112</v>
       </c>
-      <c r="C27" s="175" t="s">
+      <c r="C27" s="149" t="s">
         <v>113</v>
       </c>
-      <c r="D27" s="175" t="s">
+      <c r="D27" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E27" s="38"/>
@@ -8148,10 +6478,10 @@
       </c>
     </row>
     <row r="28" spans="1:14">
-      <c r="A28" s="176"/>
-      <c r="B28" s="176"/>
-      <c r="C28" s="176"/>
-      <c r="D28" s="176"/>
+      <c r="A28" s="150"/>
+      <c r="B28" s="150"/>
+      <c r="C28" s="150"/>
+      <c r="D28" s="150"/>
       <c r="E28" s="38"/>
       <c r="F28" s="36" t="s">
         <v>60</v>
@@ -8176,16 +6506,16 @@
       </c>
     </row>
     <row r="29" spans="1:14">
-      <c r="A29" s="175" t="s">
+      <c r="A29" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B29" s="175" t="s">
+      <c r="B29" s="149" t="s">
         <v>114</v>
       </c>
-      <c r="C29" s="175" t="s">
+      <c r="C29" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D29" s="175" t="s">
+      <c r="D29" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E29" s="38"/>
@@ -8212,10 +6542,10 @@
       </c>
     </row>
     <row r="30" spans="1:14">
-      <c r="A30" s="176"/>
-      <c r="B30" s="176"/>
-      <c r="C30" s="176"/>
-      <c r="D30" s="176"/>
+      <c r="A30" s="150"/>
+      <c r="B30" s="150"/>
+      <c r="C30" s="150"/>
+      <c r="D30" s="150"/>
       <c r="E30" s="38"/>
       <c r="F30" s="36" t="s">
         <v>60</v>
@@ -8240,16 +6570,16 @@
       </c>
     </row>
     <row r="31" spans="1:14">
-      <c r="A31" s="175" t="s">
+      <c r="A31" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B31" s="175" t="s">
+      <c r="B31" s="149" t="s">
         <v>65</v>
       </c>
-      <c r="C31" s="175" t="s">
+      <c r="C31" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D31" s="175" t="s">
+      <c r="D31" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E31" s="38"/>
@@ -8276,10 +6606,10 @@
       </c>
     </row>
     <row r="32" spans="1:14">
-      <c r="A32" s="176"/>
-      <c r="B32" s="176"/>
-      <c r="C32" s="176"/>
-      <c r="D32" s="176"/>
+      <c r="A32" s="150"/>
+      <c r="B32" s="150"/>
+      <c r="C32" s="150"/>
+      <c r="D32" s="150"/>
       <c r="E32" s="38"/>
       <c r="F32" s="36" t="s">
         <v>60</v>
@@ -8304,16 +6634,16 @@
       </c>
     </row>
     <row r="33" spans="1:14">
-      <c r="A33" s="175" t="s">
+      <c r="A33" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B33" s="175" t="s">
+      <c r="B33" s="149" t="s">
         <v>115</v>
       </c>
-      <c r="C33" s="175" t="s">
+      <c r="C33" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D33" s="175" t="s">
+      <c r="D33" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E33" s="38"/>
@@ -8340,10 +6670,10 @@
       </c>
     </row>
     <row r="34" spans="1:14">
-      <c r="A34" s="176"/>
-      <c r="B34" s="176"/>
-      <c r="C34" s="176"/>
-      <c r="D34" s="176"/>
+      <c r="A34" s="150"/>
+      <c r="B34" s="150"/>
+      <c r="C34" s="150"/>
+      <c r="D34" s="150"/>
       <c r="E34" s="38"/>
       <c r="F34" s="36" t="s">
         <v>60</v>
@@ -8368,16 +6698,16 @@
       </c>
     </row>
     <row r="35" spans="1:14">
-      <c r="A35" s="175" t="s">
+      <c r="A35" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B35" s="175" t="s">
+      <c r="B35" s="149" t="s">
         <v>17</v>
       </c>
-      <c r="C35" s="175" t="s">
+      <c r="C35" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D35" s="175" t="s">
+      <c r="D35" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E35" s="38"/>
@@ -8400,10 +6730,10 @@
       </c>
     </row>
     <row r="36" spans="1:14">
-      <c r="A36" s="176"/>
-      <c r="B36" s="176"/>
-      <c r="C36" s="176"/>
-      <c r="D36" s="176"/>
+      <c r="A36" s="150"/>
+      <c r="B36" s="150"/>
+      <c r="C36" s="150"/>
+      <c r="D36" s="150"/>
       <c r="E36" s="38"/>
       <c r="F36" s="44" t="s">
         <v>71</v>
@@ -8424,16 +6754,16 @@
       </c>
     </row>
     <row r="37" spans="1:14">
-      <c r="A37" s="175" t="s">
+      <c r="A37" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B37" s="175" t="s">
+      <c r="B37" s="149" t="s">
         <v>18</v>
       </c>
-      <c r="C37" s="175" t="s">
+      <c r="C37" s="149" t="s">
         <v>41</v>
       </c>
-      <c r="D37" s="175" t="s">
+      <c r="D37" s="149" t="s">
         <v>62</v>
       </c>
       <c r="E37" s="38"/>
@@ -8456,10 +6786,10 @@
       </c>
     </row>
     <row r="38" spans="1:14">
-      <c r="A38" s="176"/>
-      <c r="B38" s="176"/>
-      <c r="C38" s="176"/>
-      <c r="D38" s="176"/>
+      <c r="A38" s="150"/>
+      <c r="B38" s="150"/>
+      <c r="C38" s="150"/>
+      <c r="D38" s="150"/>
       <c r="E38" s="38"/>
       <c r="F38" s="44" t="s">
         <v>71</v>
@@ -8480,16 +6810,16 @@
       </c>
     </row>
     <row r="39" spans="1:14">
-      <c r="A39" s="175" t="s">
+      <c r="A39" s="149" t="s">
         <v>96</v>
       </c>
-      <c r="B39" s="175" t="s">
+      <c r="B39" s="149" t="s">
         <v>19</v>
       </c>
-      <c r="C39" s="175" t="s">
+      <c r="C39" s="149" t="s">
         <v>40</v>
       </c>
-      <c r="D39" s="175" t="s">
+      <c r="D39" s="149" t="s">
         <v>55</v>
       </c>
       <c r="E39" s="38"/>
@@ -8512,10 +6842,10 @@
       </c>
     </row>
     <row r="40" spans="1:14">
-      <c r="A40" s="176"/>
-      <c r="B40" s="176"/>
-      <c r="C40" s="176"/>
-      <c r="D40" s="176"/>
+      <c r="A40" s="150"/>
+      <c r="B40" s="150"/>
+      <c r="C40" s="150"/>
+      <c r="D40" s="150"/>
       <c r="E40" s="38"/>
       <c r="F40" s="44" t="s">
         <v>71</v>
@@ -8578,12 +6908,70 @@
   </sheetData>
   <autoFilter ref="A4:J40" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="78">
-    <mergeCell ref="L3:N3"/>
-    <mergeCell ref="A3:D3"/>
-    <mergeCell ref="E3:E4"/>
-    <mergeCell ref="F3:F4"/>
-    <mergeCell ref="G3:J3"/>
-    <mergeCell ref="K3:K4"/>
+    <mergeCell ref="A37:A38"/>
+    <mergeCell ref="B37:B38"/>
+    <mergeCell ref="C37:C38"/>
+    <mergeCell ref="D37:D38"/>
+    <mergeCell ref="A39:A40"/>
+    <mergeCell ref="B39:B40"/>
+    <mergeCell ref="C39:C40"/>
+    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="C33:C34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="B35:B36"/>
+    <mergeCell ref="C35:C36"/>
+    <mergeCell ref="D35:D36"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="C31:C32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="A25:A26"/>
+    <mergeCell ref="B25:B26"/>
+    <mergeCell ref="C25:C26"/>
+    <mergeCell ref="D25:D26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:B28"/>
+    <mergeCell ref="C27:C28"/>
+    <mergeCell ref="D27:D28"/>
+    <mergeCell ref="A21:A22"/>
+    <mergeCell ref="B21:B22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="B23:B24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="A17:A18"/>
+    <mergeCell ref="B17:B18"/>
+    <mergeCell ref="C17:C18"/>
+    <mergeCell ref="D17:D18"/>
+    <mergeCell ref="A19:A20"/>
+    <mergeCell ref="B19:B20"/>
+    <mergeCell ref="C19:C20"/>
+    <mergeCell ref="D19:D20"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="B13:B14"/>
+    <mergeCell ref="C13:C14"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:B10"/>
+    <mergeCell ref="C9:C10"/>
+    <mergeCell ref="D9:D10"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:B12"/>
+    <mergeCell ref="C11:C12"/>
+    <mergeCell ref="D11:D12"/>
     <mergeCell ref="A5:A6"/>
     <mergeCell ref="B5:B6"/>
     <mergeCell ref="C5:C6"/>
@@ -8592,70 +6980,12 @@
     <mergeCell ref="B7:B8"/>
     <mergeCell ref="C7:C8"/>
     <mergeCell ref="D7:D8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:B10"/>
-    <mergeCell ref="C9:C10"/>
-    <mergeCell ref="D9:D10"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="C11:C12"/>
-    <mergeCell ref="D11:D12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
-    <mergeCell ref="C13:C14"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="B15:B16"/>
-    <mergeCell ref="C15:C16"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="A17:A18"/>
-    <mergeCell ref="B17:B18"/>
-    <mergeCell ref="C17:C18"/>
-    <mergeCell ref="D17:D18"/>
-    <mergeCell ref="A19:A20"/>
-    <mergeCell ref="B19:B20"/>
-    <mergeCell ref="C19:C20"/>
-    <mergeCell ref="D19:D20"/>
-    <mergeCell ref="A21:A22"/>
-    <mergeCell ref="B21:B22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="B23:B24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="B25:B26"/>
-    <mergeCell ref="C25:C26"/>
-    <mergeCell ref="D25:D26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:B28"/>
-    <mergeCell ref="C27:C28"/>
-    <mergeCell ref="D27:D28"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="C31:C32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="C33:C34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="A35:A36"/>
-    <mergeCell ref="B35:B36"/>
-    <mergeCell ref="C35:C36"/>
-    <mergeCell ref="D35:D36"/>
-    <mergeCell ref="A37:A38"/>
-    <mergeCell ref="B37:B38"/>
-    <mergeCell ref="C37:C38"/>
-    <mergeCell ref="D37:D38"/>
-    <mergeCell ref="A39:A40"/>
-    <mergeCell ref="B39:B40"/>
-    <mergeCell ref="C39:C40"/>
-    <mergeCell ref="D39:D40"/>
+    <mergeCell ref="L3:N3"/>
+    <mergeCell ref="A3:D3"/>
+    <mergeCell ref="E3:E4"/>
+    <mergeCell ref="F3:F4"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="K3:K4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8669,6 +6999,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100CB3E82472BAB9C44A28EB64A5707CFBB" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="ba74af0463e200a6fcb582e7ce3bd18d">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4341c514-5618-4496-b0ff-a04152ced351" xmlns:ns4="3f156293-7756-400e-8739-aa4627f47d52" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3561da94b4c779a2eb54f69254883559" ns3:_="" ns4:_="">
     <xsd:import namespace="4341c514-5618-4496-b0ff-a04152ced351"/>
@@ -8891,15 +7230,6 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{CCD2EDED-2785-47B1-8217-E183DF65BB94}">
   <ds:schemaRefs>
@@ -8918,6 +7248,14 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8455C0B-68CC-4AF2-8E27-4BADEC7C9791}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{EC0CB6C7-8F81-4DDA-AD36-8CAD8832CA37}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8936,14 +7274,6 @@
 </ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{D8455C0B-68CC-4AF2-8E27-4BADEC7C9791}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{e0793d39-0939-496d-b129-198edd916feb}" enabled="0" method="" siteId="{e0793d39-0939-496d-b129-198edd916feb}" removed="1"/>
